--- a/incident-management-backend/doc/接口文档.xlsx
+++ b/incident-management-backend/doc/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12900" tabRatio="789" activeTab="6"/>
+    <workbookView windowWidth="26880" windowHeight="12900" tabRatio="789" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="80" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="63">
   <si>
     <t>接口设计说明书</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Long</t>
-  </si>
-  <si>
-    <t>返回目录</t>
   </si>
   <si>
     <t>事件变更</t>
@@ -238,7 +235,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,20 +274,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -349,6 +332,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1085,138 +1076,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,10 +1266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1289,82 +1276,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,1479 +1682,1479 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="2" max="11" width="12.1296296296296" style="26" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="26" customWidth="1"/>
-    <col min="13" max="14" width="7.5" style="26" customWidth="1"/>
-    <col min="15" max="15" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="26" customWidth="1"/>
-    <col min="17" max="18" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="26" customWidth="1"/>
-    <col min="21" max="21" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="22" max="22" width="2.25" style="26" customWidth="1"/>
-    <col min="23" max="23" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="24" max="256" width="8.25" style="26"/>
-    <col min="257" max="257" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="258" max="263" width="7.5" style="26" customWidth="1"/>
-    <col min="264" max="264" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="265" max="266" width="7.5" style="26" customWidth="1"/>
-    <col min="267" max="267" width="5.25" style="26" customWidth="1"/>
-    <col min="268" max="268" width="13.5" style="26" customWidth="1"/>
-    <col min="269" max="270" width="7.5" style="26" customWidth="1"/>
-    <col min="271" max="271" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="272" max="272" width="7.5" style="26" customWidth="1"/>
-    <col min="273" max="274" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="275" max="275" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="276" max="276" width="10.25" style="26" customWidth="1"/>
-    <col min="277" max="277" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="278" max="278" width="2.25" style="26" customWidth="1"/>
-    <col min="279" max="279" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="280" max="512" width="8.25" style="26"/>
-    <col min="513" max="513" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="514" max="519" width="7.5" style="26" customWidth="1"/>
-    <col min="520" max="520" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="521" max="522" width="7.5" style="26" customWidth="1"/>
-    <col min="523" max="523" width="5.25" style="26" customWidth="1"/>
-    <col min="524" max="524" width="13.5" style="26" customWidth="1"/>
-    <col min="525" max="526" width="7.5" style="26" customWidth="1"/>
-    <col min="527" max="527" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="528" max="528" width="7.5" style="26" customWidth="1"/>
-    <col min="529" max="530" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="531" max="531" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="532" max="532" width="10.25" style="26" customWidth="1"/>
-    <col min="533" max="533" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="534" max="534" width="2.25" style="26" customWidth="1"/>
-    <col min="535" max="535" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="536" max="768" width="8.25" style="26"/>
-    <col min="769" max="769" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="770" max="775" width="7.5" style="26" customWidth="1"/>
-    <col min="776" max="776" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="777" max="778" width="7.5" style="26" customWidth="1"/>
-    <col min="779" max="779" width="5.25" style="26" customWidth="1"/>
-    <col min="780" max="780" width="13.5" style="26" customWidth="1"/>
-    <col min="781" max="782" width="7.5" style="26" customWidth="1"/>
-    <col min="783" max="783" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="784" max="784" width="7.5" style="26" customWidth="1"/>
-    <col min="785" max="786" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="787" max="787" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="788" max="788" width="10.25" style="26" customWidth="1"/>
-    <col min="789" max="789" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="790" max="790" width="2.25" style="26" customWidth="1"/>
-    <col min="791" max="791" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="792" max="1024" width="8.25" style="26"/>
-    <col min="1025" max="1025" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="1026" max="1031" width="7.5" style="26" customWidth="1"/>
-    <col min="1032" max="1032" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="1033" max="1034" width="7.5" style="26" customWidth="1"/>
-    <col min="1035" max="1035" width="5.25" style="26" customWidth="1"/>
-    <col min="1036" max="1036" width="13.5" style="26" customWidth="1"/>
-    <col min="1037" max="1038" width="7.5" style="26" customWidth="1"/>
-    <col min="1039" max="1039" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="1040" max="1040" width="7.5" style="26" customWidth="1"/>
-    <col min="1041" max="1042" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1043" max="1043" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="1044" max="1044" width="10.25" style="26" customWidth="1"/>
-    <col min="1045" max="1045" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="1046" max="1046" width="2.25" style="26" customWidth="1"/>
-    <col min="1047" max="1047" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1048" max="1280" width="8.25" style="26"/>
-    <col min="1281" max="1281" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="1282" max="1287" width="7.5" style="26" customWidth="1"/>
-    <col min="1288" max="1288" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="1289" max="1290" width="7.5" style="26" customWidth="1"/>
-    <col min="1291" max="1291" width="5.25" style="26" customWidth="1"/>
-    <col min="1292" max="1292" width="13.5" style="26" customWidth="1"/>
-    <col min="1293" max="1294" width="7.5" style="26" customWidth="1"/>
-    <col min="1295" max="1295" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="1296" max="1296" width="7.5" style="26" customWidth="1"/>
-    <col min="1297" max="1298" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1299" max="1299" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="1300" max="1300" width="10.25" style="26" customWidth="1"/>
-    <col min="1301" max="1301" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="1302" max="1302" width="2.25" style="26" customWidth="1"/>
-    <col min="1303" max="1303" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1304" max="1536" width="8.25" style="26"/>
-    <col min="1537" max="1537" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="1538" max="1543" width="7.5" style="26" customWidth="1"/>
-    <col min="1544" max="1544" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="1545" max="1546" width="7.5" style="26" customWidth="1"/>
-    <col min="1547" max="1547" width="5.25" style="26" customWidth="1"/>
-    <col min="1548" max="1548" width="13.5" style="26" customWidth="1"/>
-    <col min="1549" max="1550" width="7.5" style="26" customWidth="1"/>
-    <col min="1551" max="1551" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="1552" max="1552" width="7.5" style="26" customWidth="1"/>
-    <col min="1553" max="1554" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1555" max="1555" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="1556" max="1556" width="10.25" style="26" customWidth="1"/>
-    <col min="1557" max="1557" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="1558" max="1558" width="2.25" style="26" customWidth="1"/>
-    <col min="1559" max="1559" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1560" max="1792" width="8.25" style="26"/>
-    <col min="1793" max="1793" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="1794" max="1799" width="7.5" style="26" customWidth="1"/>
-    <col min="1800" max="1800" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="1801" max="1802" width="7.5" style="26" customWidth="1"/>
-    <col min="1803" max="1803" width="5.25" style="26" customWidth="1"/>
-    <col min="1804" max="1804" width="13.5" style="26" customWidth="1"/>
-    <col min="1805" max="1806" width="7.5" style="26" customWidth="1"/>
-    <col min="1807" max="1807" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="1808" max="1808" width="7.5" style="26" customWidth="1"/>
-    <col min="1809" max="1810" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1811" max="1811" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="1812" max="1812" width="10.25" style="26" customWidth="1"/>
-    <col min="1813" max="1813" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="1814" max="1814" width="2.25" style="26" customWidth="1"/>
-    <col min="1815" max="1815" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="1816" max="2048" width="8.25" style="26"/>
-    <col min="2049" max="2049" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="2050" max="2055" width="7.5" style="26" customWidth="1"/>
-    <col min="2056" max="2056" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="2057" max="2058" width="7.5" style="26" customWidth="1"/>
-    <col min="2059" max="2059" width="5.25" style="26" customWidth="1"/>
-    <col min="2060" max="2060" width="13.5" style="26" customWidth="1"/>
-    <col min="2061" max="2062" width="7.5" style="26" customWidth="1"/>
-    <col min="2063" max="2063" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="2064" max="2064" width="7.5" style="26" customWidth="1"/>
-    <col min="2065" max="2066" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2067" max="2067" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="2068" max="2068" width="10.25" style="26" customWidth="1"/>
-    <col min="2069" max="2069" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="2070" max="2070" width="2.25" style="26" customWidth="1"/>
-    <col min="2071" max="2071" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2072" max="2304" width="8.25" style="26"/>
-    <col min="2305" max="2305" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="2306" max="2311" width="7.5" style="26" customWidth="1"/>
-    <col min="2312" max="2312" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="2313" max="2314" width="7.5" style="26" customWidth="1"/>
-    <col min="2315" max="2315" width="5.25" style="26" customWidth="1"/>
-    <col min="2316" max="2316" width="13.5" style="26" customWidth="1"/>
-    <col min="2317" max="2318" width="7.5" style="26" customWidth="1"/>
-    <col min="2319" max="2319" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="2320" max="2320" width="7.5" style="26" customWidth="1"/>
-    <col min="2321" max="2322" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2323" max="2323" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="2324" max="2324" width="10.25" style="26" customWidth="1"/>
-    <col min="2325" max="2325" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="2326" max="2326" width="2.25" style="26" customWidth="1"/>
-    <col min="2327" max="2327" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2328" max="2560" width="8.25" style="26"/>
-    <col min="2561" max="2561" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="2562" max="2567" width="7.5" style="26" customWidth="1"/>
-    <col min="2568" max="2568" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="2569" max="2570" width="7.5" style="26" customWidth="1"/>
-    <col min="2571" max="2571" width="5.25" style="26" customWidth="1"/>
-    <col min="2572" max="2572" width="13.5" style="26" customWidth="1"/>
-    <col min="2573" max="2574" width="7.5" style="26" customWidth="1"/>
-    <col min="2575" max="2575" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="2576" max="2576" width="7.5" style="26" customWidth="1"/>
-    <col min="2577" max="2578" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2579" max="2579" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="2580" max="2580" width="10.25" style="26" customWidth="1"/>
-    <col min="2581" max="2581" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="2582" max="2582" width="2.25" style="26" customWidth="1"/>
-    <col min="2583" max="2583" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2584" max="2816" width="8.25" style="26"/>
-    <col min="2817" max="2817" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="2818" max="2823" width="7.5" style="26" customWidth="1"/>
-    <col min="2824" max="2824" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="2825" max="2826" width="7.5" style="26" customWidth="1"/>
-    <col min="2827" max="2827" width="5.25" style="26" customWidth="1"/>
-    <col min="2828" max="2828" width="13.5" style="26" customWidth="1"/>
-    <col min="2829" max="2830" width="7.5" style="26" customWidth="1"/>
-    <col min="2831" max="2831" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="2832" max="2832" width="7.5" style="26" customWidth="1"/>
-    <col min="2833" max="2834" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2835" max="2835" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="2836" max="2836" width="10.25" style="26" customWidth="1"/>
-    <col min="2837" max="2837" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="2838" max="2838" width="2.25" style="26" customWidth="1"/>
-    <col min="2839" max="2839" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="2840" max="3072" width="8.25" style="26"/>
-    <col min="3073" max="3073" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="3074" max="3079" width="7.5" style="26" customWidth="1"/>
-    <col min="3080" max="3080" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="3081" max="3082" width="7.5" style="26" customWidth="1"/>
-    <col min="3083" max="3083" width="5.25" style="26" customWidth="1"/>
-    <col min="3084" max="3084" width="13.5" style="26" customWidth="1"/>
-    <col min="3085" max="3086" width="7.5" style="26" customWidth="1"/>
-    <col min="3087" max="3087" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="3088" max="3088" width="7.5" style="26" customWidth="1"/>
-    <col min="3089" max="3090" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3091" max="3091" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="3092" max="3092" width="10.25" style="26" customWidth="1"/>
-    <col min="3093" max="3093" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="3094" max="3094" width="2.25" style="26" customWidth="1"/>
-    <col min="3095" max="3095" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3096" max="3328" width="8.25" style="26"/>
-    <col min="3329" max="3329" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="3330" max="3335" width="7.5" style="26" customWidth="1"/>
-    <col min="3336" max="3336" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="3337" max="3338" width="7.5" style="26" customWidth="1"/>
-    <col min="3339" max="3339" width="5.25" style="26" customWidth="1"/>
-    <col min="3340" max="3340" width="13.5" style="26" customWidth="1"/>
-    <col min="3341" max="3342" width="7.5" style="26" customWidth="1"/>
-    <col min="3343" max="3343" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="3344" max="3344" width="7.5" style="26" customWidth="1"/>
-    <col min="3345" max="3346" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3347" max="3347" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="3348" max="3348" width="10.25" style="26" customWidth="1"/>
-    <col min="3349" max="3349" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="3350" max="3350" width="2.25" style="26" customWidth="1"/>
-    <col min="3351" max="3351" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3352" max="3584" width="8.25" style="26"/>
-    <col min="3585" max="3585" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="3586" max="3591" width="7.5" style="26" customWidth="1"/>
-    <col min="3592" max="3592" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="3593" max="3594" width="7.5" style="26" customWidth="1"/>
-    <col min="3595" max="3595" width="5.25" style="26" customWidth="1"/>
-    <col min="3596" max="3596" width="13.5" style="26" customWidth="1"/>
-    <col min="3597" max="3598" width="7.5" style="26" customWidth="1"/>
-    <col min="3599" max="3599" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="3600" max="3600" width="7.5" style="26" customWidth="1"/>
-    <col min="3601" max="3602" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3603" max="3603" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="3604" max="3604" width="10.25" style="26" customWidth="1"/>
-    <col min="3605" max="3605" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="3606" max="3606" width="2.25" style="26" customWidth="1"/>
-    <col min="3607" max="3607" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3608" max="3840" width="8.25" style="26"/>
-    <col min="3841" max="3841" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="3842" max="3847" width="7.5" style="26" customWidth="1"/>
-    <col min="3848" max="3848" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="3849" max="3850" width="7.5" style="26" customWidth="1"/>
-    <col min="3851" max="3851" width="5.25" style="26" customWidth="1"/>
-    <col min="3852" max="3852" width="13.5" style="26" customWidth="1"/>
-    <col min="3853" max="3854" width="7.5" style="26" customWidth="1"/>
-    <col min="3855" max="3855" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="3856" max="3856" width="7.5" style="26" customWidth="1"/>
-    <col min="3857" max="3858" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3859" max="3859" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="3860" max="3860" width="10.25" style="26" customWidth="1"/>
-    <col min="3861" max="3861" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="3862" max="3862" width="2.25" style="26" customWidth="1"/>
-    <col min="3863" max="3863" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="3864" max="4096" width="8.25" style="26"/>
-    <col min="4097" max="4097" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="4098" max="4103" width="7.5" style="26" customWidth="1"/>
-    <col min="4104" max="4104" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="4105" max="4106" width="7.5" style="26" customWidth="1"/>
-    <col min="4107" max="4107" width="5.25" style="26" customWidth="1"/>
-    <col min="4108" max="4108" width="13.5" style="26" customWidth="1"/>
-    <col min="4109" max="4110" width="7.5" style="26" customWidth="1"/>
-    <col min="4111" max="4111" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="4112" max="4112" width="7.5" style="26" customWidth="1"/>
-    <col min="4113" max="4114" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4115" max="4115" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="4116" max="4116" width="10.25" style="26" customWidth="1"/>
-    <col min="4117" max="4117" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="4118" max="4118" width="2.25" style="26" customWidth="1"/>
-    <col min="4119" max="4119" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4120" max="4352" width="8.25" style="26"/>
-    <col min="4353" max="4353" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="4354" max="4359" width="7.5" style="26" customWidth="1"/>
-    <col min="4360" max="4360" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="4361" max="4362" width="7.5" style="26" customWidth="1"/>
-    <col min="4363" max="4363" width="5.25" style="26" customWidth="1"/>
-    <col min="4364" max="4364" width="13.5" style="26" customWidth="1"/>
-    <col min="4365" max="4366" width="7.5" style="26" customWidth="1"/>
-    <col min="4367" max="4367" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="4368" max="4368" width="7.5" style="26" customWidth="1"/>
-    <col min="4369" max="4370" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4371" max="4371" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="4372" max="4372" width="10.25" style="26" customWidth="1"/>
-    <col min="4373" max="4373" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="4374" max="4374" width="2.25" style="26" customWidth="1"/>
-    <col min="4375" max="4375" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4376" max="4608" width="8.25" style="26"/>
-    <col min="4609" max="4609" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="4610" max="4615" width="7.5" style="26" customWidth="1"/>
-    <col min="4616" max="4616" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="4617" max="4618" width="7.5" style="26" customWidth="1"/>
-    <col min="4619" max="4619" width="5.25" style="26" customWidth="1"/>
-    <col min="4620" max="4620" width="13.5" style="26" customWidth="1"/>
-    <col min="4621" max="4622" width="7.5" style="26" customWidth="1"/>
-    <col min="4623" max="4623" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="4624" max="4624" width="7.5" style="26" customWidth="1"/>
-    <col min="4625" max="4626" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4627" max="4627" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="4628" max="4628" width="10.25" style="26" customWidth="1"/>
-    <col min="4629" max="4629" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="4630" max="4630" width="2.25" style="26" customWidth="1"/>
-    <col min="4631" max="4631" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4632" max="4864" width="8.25" style="26"/>
-    <col min="4865" max="4865" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="4866" max="4871" width="7.5" style="26" customWidth="1"/>
-    <col min="4872" max="4872" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="4873" max="4874" width="7.5" style="26" customWidth="1"/>
-    <col min="4875" max="4875" width="5.25" style="26" customWidth="1"/>
-    <col min="4876" max="4876" width="13.5" style="26" customWidth="1"/>
-    <col min="4877" max="4878" width="7.5" style="26" customWidth="1"/>
-    <col min="4879" max="4879" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="4880" max="4880" width="7.5" style="26" customWidth="1"/>
-    <col min="4881" max="4882" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4883" max="4883" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="4884" max="4884" width="10.25" style="26" customWidth="1"/>
-    <col min="4885" max="4885" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="4886" max="4886" width="2.25" style="26" customWidth="1"/>
-    <col min="4887" max="4887" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="4888" max="5120" width="8.25" style="26"/>
-    <col min="5121" max="5121" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="5122" max="5127" width="7.5" style="26" customWidth="1"/>
-    <col min="5128" max="5128" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="5129" max="5130" width="7.5" style="26" customWidth="1"/>
-    <col min="5131" max="5131" width="5.25" style="26" customWidth="1"/>
-    <col min="5132" max="5132" width="13.5" style="26" customWidth="1"/>
-    <col min="5133" max="5134" width="7.5" style="26" customWidth="1"/>
-    <col min="5135" max="5135" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="5136" max="5136" width="7.5" style="26" customWidth="1"/>
-    <col min="5137" max="5138" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5139" max="5139" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="5140" max="5140" width="10.25" style="26" customWidth="1"/>
-    <col min="5141" max="5141" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="5142" max="5142" width="2.25" style="26" customWidth="1"/>
-    <col min="5143" max="5143" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5144" max="5376" width="8.25" style="26"/>
-    <col min="5377" max="5377" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="5378" max="5383" width="7.5" style="26" customWidth="1"/>
-    <col min="5384" max="5384" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="5385" max="5386" width="7.5" style="26" customWidth="1"/>
-    <col min="5387" max="5387" width="5.25" style="26" customWidth="1"/>
-    <col min="5388" max="5388" width="13.5" style="26" customWidth="1"/>
-    <col min="5389" max="5390" width="7.5" style="26" customWidth="1"/>
-    <col min="5391" max="5391" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="5392" max="5392" width="7.5" style="26" customWidth="1"/>
-    <col min="5393" max="5394" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5395" max="5395" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="5396" max="5396" width="10.25" style="26" customWidth="1"/>
-    <col min="5397" max="5397" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="5398" max="5398" width="2.25" style="26" customWidth="1"/>
-    <col min="5399" max="5399" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5400" max="5632" width="8.25" style="26"/>
-    <col min="5633" max="5633" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="5634" max="5639" width="7.5" style="26" customWidth="1"/>
-    <col min="5640" max="5640" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="5641" max="5642" width="7.5" style="26" customWidth="1"/>
-    <col min="5643" max="5643" width="5.25" style="26" customWidth="1"/>
-    <col min="5644" max="5644" width="13.5" style="26" customWidth="1"/>
-    <col min="5645" max="5646" width="7.5" style="26" customWidth="1"/>
-    <col min="5647" max="5647" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="5648" max="5648" width="7.5" style="26" customWidth="1"/>
-    <col min="5649" max="5650" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5651" max="5651" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="5652" max="5652" width="10.25" style="26" customWidth="1"/>
-    <col min="5653" max="5653" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="5654" max="5654" width="2.25" style="26" customWidth="1"/>
-    <col min="5655" max="5655" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5656" max="5888" width="8.25" style="26"/>
-    <col min="5889" max="5889" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="5890" max="5895" width="7.5" style="26" customWidth="1"/>
-    <col min="5896" max="5896" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="5897" max="5898" width="7.5" style="26" customWidth="1"/>
-    <col min="5899" max="5899" width="5.25" style="26" customWidth="1"/>
-    <col min="5900" max="5900" width="13.5" style="26" customWidth="1"/>
-    <col min="5901" max="5902" width="7.5" style="26" customWidth="1"/>
-    <col min="5903" max="5903" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="5904" max="5904" width="7.5" style="26" customWidth="1"/>
-    <col min="5905" max="5906" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5907" max="5907" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="5908" max="5908" width="10.25" style="26" customWidth="1"/>
-    <col min="5909" max="5909" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="5910" max="5910" width="2.25" style="26" customWidth="1"/>
-    <col min="5911" max="5911" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="5912" max="6144" width="8.25" style="26"/>
-    <col min="6145" max="6145" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="6146" max="6151" width="7.5" style="26" customWidth="1"/>
-    <col min="6152" max="6152" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="6153" max="6154" width="7.5" style="26" customWidth="1"/>
-    <col min="6155" max="6155" width="5.25" style="26" customWidth="1"/>
-    <col min="6156" max="6156" width="13.5" style="26" customWidth="1"/>
-    <col min="6157" max="6158" width="7.5" style="26" customWidth="1"/>
-    <col min="6159" max="6159" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="6160" max="6160" width="7.5" style="26" customWidth="1"/>
-    <col min="6161" max="6162" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6163" max="6163" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="6164" max="6164" width="10.25" style="26" customWidth="1"/>
-    <col min="6165" max="6165" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="6166" max="6166" width="2.25" style="26" customWidth="1"/>
-    <col min="6167" max="6167" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6168" max="6400" width="8.25" style="26"/>
-    <col min="6401" max="6401" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="6402" max="6407" width="7.5" style="26" customWidth="1"/>
-    <col min="6408" max="6408" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="6409" max="6410" width="7.5" style="26" customWidth="1"/>
-    <col min="6411" max="6411" width="5.25" style="26" customWidth="1"/>
-    <col min="6412" max="6412" width="13.5" style="26" customWidth="1"/>
-    <col min="6413" max="6414" width="7.5" style="26" customWidth="1"/>
-    <col min="6415" max="6415" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="6416" max="6416" width="7.5" style="26" customWidth="1"/>
-    <col min="6417" max="6418" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6419" max="6419" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="6420" max="6420" width="10.25" style="26" customWidth="1"/>
-    <col min="6421" max="6421" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="6422" max="6422" width="2.25" style="26" customWidth="1"/>
-    <col min="6423" max="6423" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6424" max="6656" width="8.25" style="26"/>
-    <col min="6657" max="6657" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="6658" max="6663" width="7.5" style="26" customWidth="1"/>
-    <col min="6664" max="6664" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="6665" max="6666" width="7.5" style="26" customWidth="1"/>
-    <col min="6667" max="6667" width="5.25" style="26" customWidth="1"/>
-    <col min="6668" max="6668" width="13.5" style="26" customWidth="1"/>
-    <col min="6669" max="6670" width="7.5" style="26" customWidth="1"/>
-    <col min="6671" max="6671" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="6672" max="6672" width="7.5" style="26" customWidth="1"/>
-    <col min="6673" max="6674" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6675" max="6675" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="6676" max="6676" width="10.25" style="26" customWidth="1"/>
-    <col min="6677" max="6677" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="6678" max="6678" width="2.25" style="26" customWidth="1"/>
-    <col min="6679" max="6679" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6680" max="6912" width="8.25" style="26"/>
-    <col min="6913" max="6913" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="6914" max="6919" width="7.5" style="26" customWidth="1"/>
-    <col min="6920" max="6920" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="6921" max="6922" width="7.5" style="26" customWidth="1"/>
-    <col min="6923" max="6923" width="5.25" style="26" customWidth="1"/>
-    <col min="6924" max="6924" width="13.5" style="26" customWidth="1"/>
-    <col min="6925" max="6926" width="7.5" style="26" customWidth="1"/>
-    <col min="6927" max="6927" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="6928" max="6928" width="7.5" style="26" customWidth="1"/>
-    <col min="6929" max="6930" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6931" max="6931" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="6932" max="6932" width="10.25" style="26" customWidth="1"/>
-    <col min="6933" max="6933" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="6934" max="6934" width="2.25" style="26" customWidth="1"/>
-    <col min="6935" max="6935" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="6936" max="7168" width="8.25" style="26"/>
-    <col min="7169" max="7169" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="7170" max="7175" width="7.5" style="26" customWidth="1"/>
-    <col min="7176" max="7176" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="7177" max="7178" width="7.5" style="26" customWidth="1"/>
-    <col min="7179" max="7179" width="5.25" style="26" customWidth="1"/>
-    <col min="7180" max="7180" width="13.5" style="26" customWidth="1"/>
-    <col min="7181" max="7182" width="7.5" style="26" customWidth="1"/>
-    <col min="7183" max="7183" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="7184" max="7184" width="7.5" style="26" customWidth="1"/>
-    <col min="7185" max="7186" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7187" max="7187" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="7188" max="7188" width="10.25" style="26" customWidth="1"/>
-    <col min="7189" max="7189" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="7190" max="7190" width="2.25" style="26" customWidth="1"/>
-    <col min="7191" max="7191" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7192" max="7424" width="8.25" style="26"/>
-    <col min="7425" max="7425" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="7426" max="7431" width="7.5" style="26" customWidth="1"/>
-    <col min="7432" max="7432" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="7433" max="7434" width="7.5" style="26" customWidth="1"/>
-    <col min="7435" max="7435" width="5.25" style="26" customWidth="1"/>
-    <col min="7436" max="7436" width="13.5" style="26" customWidth="1"/>
-    <col min="7437" max="7438" width="7.5" style="26" customWidth="1"/>
-    <col min="7439" max="7439" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="7440" max="7440" width="7.5" style="26" customWidth="1"/>
-    <col min="7441" max="7442" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7443" max="7443" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="7444" max="7444" width="10.25" style="26" customWidth="1"/>
-    <col min="7445" max="7445" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="7446" max="7446" width="2.25" style="26" customWidth="1"/>
-    <col min="7447" max="7447" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7448" max="7680" width="8.25" style="26"/>
-    <col min="7681" max="7681" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="7682" max="7687" width="7.5" style="26" customWidth="1"/>
-    <col min="7688" max="7688" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="7689" max="7690" width="7.5" style="26" customWidth="1"/>
-    <col min="7691" max="7691" width="5.25" style="26" customWidth="1"/>
-    <col min="7692" max="7692" width="13.5" style="26" customWidth="1"/>
-    <col min="7693" max="7694" width="7.5" style="26" customWidth="1"/>
-    <col min="7695" max="7695" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="7696" max="7696" width="7.5" style="26" customWidth="1"/>
-    <col min="7697" max="7698" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7699" max="7699" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="7700" max="7700" width="10.25" style="26" customWidth="1"/>
-    <col min="7701" max="7701" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="7702" max="7702" width="2.25" style="26" customWidth="1"/>
-    <col min="7703" max="7703" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7704" max="7936" width="8.25" style="26"/>
-    <col min="7937" max="7937" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="7938" max="7943" width="7.5" style="26" customWidth="1"/>
-    <col min="7944" max="7944" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="7945" max="7946" width="7.5" style="26" customWidth="1"/>
-    <col min="7947" max="7947" width="5.25" style="26" customWidth="1"/>
-    <col min="7948" max="7948" width="13.5" style="26" customWidth="1"/>
-    <col min="7949" max="7950" width="7.5" style="26" customWidth="1"/>
-    <col min="7951" max="7951" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="7952" max="7952" width="7.5" style="26" customWidth="1"/>
-    <col min="7953" max="7954" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7955" max="7955" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="7956" max="7956" width="10.25" style="26" customWidth="1"/>
-    <col min="7957" max="7957" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="7958" max="7958" width="2.25" style="26" customWidth="1"/>
-    <col min="7959" max="7959" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="7960" max="8192" width="8.25" style="26"/>
-    <col min="8193" max="8193" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="8194" max="8199" width="7.5" style="26" customWidth="1"/>
-    <col min="8200" max="8200" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="8201" max="8202" width="7.5" style="26" customWidth="1"/>
-    <col min="8203" max="8203" width="5.25" style="26" customWidth="1"/>
-    <col min="8204" max="8204" width="13.5" style="26" customWidth="1"/>
-    <col min="8205" max="8206" width="7.5" style="26" customWidth="1"/>
-    <col min="8207" max="8207" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="8208" max="8208" width="7.5" style="26" customWidth="1"/>
-    <col min="8209" max="8210" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8211" max="8211" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="8212" max="8212" width="10.25" style="26" customWidth="1"/>
-    <col min="8213" max="8213" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="8214" max="8214" width="2.25" style="26" customWidth="1"/>
-    <col min="8215" max="8215" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8216" max="8448" width="8.25" style="26"/>
-    <col min="8449" max="8449" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="8450" max="8455" width="7.5" style="26" customWidth="1"/>
-    <col min="8456" max="8456" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="8457" max="8458" width="7.5" style="26" customWidth="1"/>
-    <col min="8459" max="8459" width="5.25" style="26" customWidth="1"/>
-    <col min="8460" max="8460" width="13.5" style="26" customWidth="1"/>
-    <col min="8461" max="8462" width="7.5" style="26" customWidth="1"/>
-    <col min="8463" max="8463" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="8464" max="8464" width="7.5" style="26" customWidth="1"/>
-    <col min="8465" max="8466" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8467" max="8467" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="8468" max="8468" width="10.25" style="26" customWidth="1"/>
-    <col min="8469" max="8469" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="8470" max="8470" width="2.25" style="26" customWidth="1"/>
-    <col min="8471" max="8471" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8472" max="8704" width="8.25" style="26"/>
-    <col min="8705" max="8705" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="8706" max="8711" width="7.5" style="26" customWidth="1"/>
-    <col min="8712" max="8712" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="8713" max="8714" width="7.5" style="26" customWidth="1"/>
-    <col min="8715" max="8715" width="5.25" style="26" customWidth="1"/>
-    <col min="8716" max="8716" width="13.5" style="26" customWidth="1"/>
-    <col min="8717" max="8718" width="7.5" style="26" customWidth="1"/>
-    <col min="8719" max="8719" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="8720" max="8720" width="7.5" style="26" customWidth="1"/>
-    <col min="8721" max="8722" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8723" max="8723" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="8724" max="8724" width="10.25" style="26" customWidth="1"/>
-    <col min="8725" max="8725" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="8726" max="8726" width="2.25" style="26" customWidth="1"/>
-    <col min="8727" max="8727" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8728" max="8960" width="8.25" style="26"/>
-    <col min="8961" max="8961" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="8962" max="8967" width="7.5" style="26" customWidth="1"/>
-    <col min="8968" max="8968" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="8969" max="8970" width="7.5" style="26" customWidth="1"/>
-    <col min="8971" max="8971" width="5.25" style="26" customWidth="1"/>
-    <col min="8972" max="8972" width="13.5" style="26" customWidth="1"/>
-    <col min="8973" max="8974" width="7.5" style="26" customWidth="1"/>
-    <col min="8975" max="8975" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="8976" max="8976" width="7.5" style="26" customWidth="1"/>
-    <col min="8977" max="8978" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8979" max="8979" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="8980" max="8980" width="10.25" style="26" customWidth="1"/>
-    <col min="8981" max="8981" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="8982" max="8982" width="2.25" style="26" customWidth="1"/>
-    <col min="8983" max="8983" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="8984" max="9216" width="8.25" style="26"/>
-    <col min="9217" max="9217" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="9218" max="9223" width="7.5" style="26" customWidth="1"/>
-    <col min="9224" max="9224" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="9225" max="9226" width="7.5" style="26" customWidth="1"/>
-    <col min="9227" max="9227" width="5.25" style="26" customWidth="1"/>
-    <col min="9228" max="9228" width="13.5" style="26" customWidth="1"/>
-    <col min="9229" max="9230" width="7.5" style="26" customWidth="1"/>
-    <col min="9231" max="9231" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="9232" max="9232" width="7.5" style="26" customWidth="1"/>
-    <col min="9233" max="9234" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9235" max="9235" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="9236" max="9236" width="10.25" style="26" customWidth="1"/>
-    <col min="9237" max="9237" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="9238" max="9238" width="2.25" style="26" customWidth="1"/>
-    <col min="9239" max="9239" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9240" max="9472" width="8.25" style="26"/>
-    <col min="9473" max="9473" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="9474" max="9479" width="7.5" style="26" customWidth="1"/>
-    <col min="9480" max="9480" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="9481" max="9482" width="7.5" style="26" customWidth="1"/>
-    <col min="9483" max="9483" width="5.25" style="26" customWidth="1"/>
-    <col min="9484" max="9484" width="13.5" style="26" customWidth="1"/>
-    <col min="9485" max="9486" width="7.5" style="26" customWidth="1"/>
-    <col min="9487" max="9487" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="9488" max="9488" width="7.5" style="26" customWidth="1"/>
-    <col min="9489" max="9490" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9491" max="9491" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="9492" max="9492" width="10.25" style="26" customWidth="1"/>
-    <col min="9493" max="9493" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="9494" max="9494" width="2.25" style="26" customWidth="1"/>
-    <col min="9495" max="9495" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9496" max="9728" width="8.25" style="26"/>
-    <col min="9729" max="9729" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="9730" max="9735" width="7.5" style="26" customWidth="1"/>
-    <col min="9736" max="9736" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="9737" max="9738" width="7.5" style="26" customWidth="1"/>
-    <col min="9739" max="9739" width="5.25" style="26" customWidth="1"/>
-    <col min="9740" max="9740" width="13.5" style="26" customWidth="1"/>
-    <col min="9741" max="9742" width="7.5" style="26" customWidth="1"/>
-    <col min="9743" max="9743" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="9744" max="9744" width="7.5" style="26" customWidth="1"/>
-    <col min="9745" max="9746" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9747" max="9747" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="9748" max="9748" width="10.25" style="26" customWidth="1"/>
-    <col min="9749" max="9749" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="9750" max="9750" width="2.25" style="26" customWidth="1"/>
-    <col min="9751" max="9751" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="9752" max="9984" width="8.25" style="26"/>
-    <col min="9985" max="9985" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="9986" max="9991" width="7.5" style="26" customWidth="1"/>
-    <col min="9992" max="9992" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="9993" max="9994" width="7.5" style="26" customWidth="1"/>
-    <col min="9995" max="9995" width="5.25" style="26" customWidth="1"/>
-    <col min="9996" max="9996" width="13.5" style="26" customWidth="1"/>
-    <col min="9997" max="9998" width="7.5" style="26" customWidth="1"/>
-    <col min="9999" max="9999" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="10000" max="10000" width="7.5" style="26" customWidth="1"/>
-    <col min="10001" max="10002" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10003" max="10003" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="10004" max="10004" width="10.25" style="26" customWidth="1"/>
-    <col min="10005" max="10005" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="10006" max="10006" width="2.25" style="26" customWidth="1"/>
-    <col min="10007" max="10007" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10008" max="10240" width="8.25" style="26"/>
-    <col min="10241" max="10241" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="10242" max="10247" width="7.5" style="26" customWidth="1"/>
-    <col min="10248" max="10248" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="10249" max="10250" width="7.5" style="26" customWidth="1"/>
-    <col min="10251" max="10251" width="5.25" style="26" customWidth="1"/>
-    <col min="10252" max="10252" width="13.5" style="26" customWidth="1"/>
-    <col min="10253" max="10254" width="7.5" style="26" customWidth="1"/>
-    <col min="10255" max="10255" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="10256" max="10256" width="7.5" style="26" customWidth="1"/>
-    <col min="10257" max="10258" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10259" max="10259" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="10260" max="10260" width="10.25" style="26" customWidth="1"/>
-    <col min="10261" max="10261" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="10262" max="10262" width="2.25" style="26" customWidth="1"/>
-    <col min="10263" max="10263" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10264" max="10496" width="8.25" style="26"/>
-    <col min="10497" max="10497" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="10498" max="10503" width="7.5" style="26" customWidth="1"/>
-    <col min="10504" max="10504" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="10505" max="10506" width="7.5" style="26" customWidth="1"/>
-    <col min="10507" max="10507" width="5.25" style="26" customWidth="1"/>
-    <col min="10508" max="10508" width="13.5" style="26" customWidth="1"/>
-    <col min="10509" max="10510" width="7.5" style="26" customWidth="1"/>
-    <col min="10511" max="10511" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="10512" max="10512" width="7.5" style="26" customWidth="1"/>
-    <col min="10513" max="10514" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10515" max="10515" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="10516" max="10516" width="10.25" style="26" customWidth="1"/>
-    <col min="10517" max="10517" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="10518" max="10518" width="2.25" style="26" customWidth="1"/>
-    <col min="10519" max="10519" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10520" max="10752" width="8.25" style="26"/>
-    <col min="10753" max="10753" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="10754" max="10759" width="7.5" style="26" customWidth="1"/>
-    <col min="10760" max="10760" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="10761" max="10762" width="7.5" style="26" customWidth="1"/>
-    <col min="10763" max="10763" width="5.25" style="26" customWidth="1"/>
-    <col min="10764" max="10764" width="13.5" style="26" customWidth="1"/>
-    <col min="10765" max="10766" width="7.5" style="26" customWidth="1"/>
-    <col min="10767" max="10767" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="10768" max="10768" width="7.5" style="26" customWidth="1"/>
-    <col min="10769" max="10770" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10771" max="10771" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="10772" max="10772" width="10.25" style="26" customWidth="1"/>
-    <col min="10773" max="10773" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="10774" max="10774" width="2.25" style="26" customWidth="1"/>
-    <col min="10775" max="10775" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="10776" max="11008" width="8.25" style="26"/>
-    <col min="11009" max="11009" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="11010" max="11015" width="7.5" style="26" customWidth="1"/>
-    <col min="11016" max="11016" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="11017" max="11018" width="7.5" style="26" customWidth="1"/>
-    <col min="11019" max="11019" width="5.25" style="26" customWidth="1"/>
-    <col min="11020" max="11020" width="13.5" style="26" customWidth="1"/>
-    <col min="11021" max="11022" width="7.5" style="26" customWidth="1"/>
-    <col min="11023" max="11023" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="11024" max="11024" width="7.5" style="26" customWidth="1"/>
-    <col min="11025" max="11026" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11027" max="11027" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="11028" max="11028" width="10.25" style="26" customWidth="1"/>
-    <col min="11029" max="11029" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="11030" max="11030" width="2.25" style="26" customWidth="1"/>
-    <col min="11031" max="11031" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11032" max="11264" width="8.25" style="26"/>
-    <col min="11265" max="11265" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="11266" max="11271" width="7.5" style="26" customWidth="1"/>
-    <col min="11272" max="11272" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="11273" max="11274" width="7.5" style="26" customWidth="1"/>
-    <col min="11275" max="11275" width="5.25" style="26" customWidth="1"/>
-    <col min="11276" max="11276" width="13.5" style="26" customWidth="1"/>
-    <col min="11277" max="11278" width="7.5" style="26" customWidth="1"/>
-    <col min="11279" max="11279" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="11280" max="11280" width="7.5" style="26" customWidth="1"/>
-    <col min="11281" max="11282" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11283" max="11283" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="11284" max="11284" width="10.25" style="26" customWidth="1"/>
-    <col min="11285" max="11285" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="11286" max="11286" width="2.25" style="26" customWidth="1"/>
-    <col min="11287" max="11287" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11288" max="11520" width="8.25" style="26"/>
-    <col min="11521" max="11521" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="11522" max="11527" width="7.5" style="26" customWidth="1"/>
-    <col min="11528" max="11528" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="11529" max="11530" width="7.5" style="26" customWidth="1"/>
-    <col min="11531" max="11531" width="5.25" style="26" customWidth="1"/>
-    <col min="11532" max="11532" width="13.5" style="26" customWidth="1"/>
-    <col min="11533" max="11534" width="7.5" style="26" customWidth="1"/>
-    <col min="11535" max="11535" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="11536" max="11536" width="7.5" style="26" customWidth="1"/>
-    <col min="11537" max="11538" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11539" max="11539" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="11540" max="11540" width="10.25" style="26" customWidth="1"/>
-    <col min="11541" max="11541" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="11542" max="11542" width="2.25" style="26" customWidth="1"/>
-    <col min="11543" max="11543" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11544" max="11776" width="8.25" style="26"/>
-    <col min="11777" max="11777" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="11778" max="11783" width="7.5" style="26" customWidth="1"/>
-    <col min="11784" max="11784" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="11785" max="11786" width="7.5" style="26" customWidth="1"/>
-    <col min="11787" max="11787" width="5.25" style="26" customWidth="1"/>
-    <col min="11788" max="11788" width="13.5" style="26" customWidth="1"/>
-    <col min="11789" max="11790" width="7.5" style="26" customWidth="1"/>
-    <col min="11791" max="11791" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="11792" max="11792" width="7.5" style="26" customWidth="1"/>
-    <col min="11793" max="11794" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11795" max="11795" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="11796" max="11796" width="10.25" style="26" customWidth="1"/>
-    <col min="11797" max="11797" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="11798" max="11798" width="2.25" style="26" customWidth="1"/>
-    <col min="11799" max="11799" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="11800" max="12032" width="8.25" style="26"/>
-    <col min="12033" max="12033" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="12034" max="12039" width="7.5" style="26" customWidth="1"/>
-    <col min="12040" max="12040" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="12041" max="12042" width="7.5" style="26" customWidth="1"/>
-    <col min="12043" max="12043" width="5.25" style="26" customWidth="1"/>
-    <col min="12044" max="12044" width="13.5" style="26" customWidth="1"/>
-    <col min="12045" max="12046" width="7.5" style="26" customWidth="1"/>
-    <col min="12047" max="12047" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="12048" max="12048" width="7.5" style="26" customWidth="1"/>
-    <col min="12049" max="12050" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12051" max="12051" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="12052" max="12052" width="10.25" style="26" customWidth="1"/>
-    <col min="12053" max="12053" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="12054" max="12054" width="2.25" style="26" customWidth="1"/>
-    <col min="12055" max="12055" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12056" max="12288" width="8.25" style="26"/>
-    <col min="12289" max="12289" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="12290" max="12295" width="7.5" style="26" customWidth="1"/>
-    <col min="12296" max="12296" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="12297" max="12298" width="7.5" style="26" customWidth="1"/>
-    <col min="12299" max="12299" width="5.25" style="26" customWidth="1"/>
-    <col min="12300" max="12300" width="13.5" style="26" customWidth="1"/>
-    <col min="12301" max="12302" width="7.5" style="26" customWidth="1"/>
-    <col min="12303" max="12303" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="12304" max="12304" width="7.5" style="26" customWidth="1"/>
-    <col min="12305" max="12306" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12307" max="12307" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="12308" max="12308" width="10.25" style="26" customWidth="1"/>
-    <col min="12309" max="12309" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="12310" max="12310" width="2.25" style="26" customWidth="1"/>
-    <col min="12311" max="12311" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12312" max="12544" width="8.25" style="26"/>
-    <col min="12545" max="12545" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="12546" max="12551" width="7.5" style="26" customWidth="1"/>
-    <col min="12552" max="12552" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="12553" max="12554" width="7.5" style="26" customWidth="1"/>
-    <col min="12555" max="12555" width="5.25" style="26" customWidth="1"/>
-    <col min="12556" max="12556" width="13.5" style="26" customWidth="1"/>
-    <col min="12557" max="12558" width="7.5" style="26" customWidth="1"/>
-    <col min="12559" max="12559" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="12560" max="12560" width="7.5" style="26" customWidth="1"/>
-    <col min="12561" max="12562" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12563" max="12563" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="12564" max="12564" width="10.25" style="26" customWidth="1"/>
-    <col min="12565" max="12565" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="12566" max="12566" width="2.25" style="26" customWidth="1"/>
-    <col min="12567" max="12567" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12568" max="12800" width="8.25" style="26"/>
-    <col min="12801" max="12801" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="12802" max="12807" width="7.5" style="26" customWidth="1"/>
-    <col min="12808" max="12808" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="12809" max="12810" width="7.5" style="26" customWidth="1"/>
-    <col min="12811" max="12811" width="5.25" style="26" customWidth="1"/>
-    <col min="12812" max="12812" width="13.5" style="26" customWidth="1"/>
-    <col min="12813" max="12814" width="7.5" style="26" customWidth="1"/>
-    <col min="12815" max="12815" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="12816" max="12816" width="7.5" style="26" customWidth="1"/>
-    <col min="12817" max="12818" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12819" max="12819" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="12820" max="12820" width="10.25" style="26" customWidth="1"/>
-    <col min="12821" max="12821" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="12822" max="12822" width="2.25" style="26" customWidth="1"/>
-    <col min="12823" max="12823" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="12824" max="13056" width="8.25" style="26"/>
-    <col min="13057" max="13057" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="13058" max="13063" width="7.5" style="26" customWidth="1"/>
-    <col min="13064" max="13064" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="13065" max="13066" width="7.5" style="26" customWidth="1"/>
-    <col min="13067" max="13067" width="5.25" style="26" customWidth="1"/>
-    <col min="13068" max="13068" width="13.5" style="26" customWidth="1"/>
-    <col min="13069" max="13070" width="7.5" style="26" customWidth="1"/>
-    <col min="13071" max="13071" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="13072" max="13072" width="7.5" style="26" customWidth="1"/>
-    <col min="13073" max="13074" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13075" max="13075" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="13076" max="13076" width="10.25" style="26" customWidth="1"/>
-    <col min="13077" max="13077" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="13078" max="13078" width="2.25" style="26" customWidth="1"/>
-    <col min="13079" max="13079" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13080" max="13312" width="8.25" style="26"/>
-    <col min="13313" max="13313" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="13314" max="13319" width="7.5" style="26" customWidth="1"/>
-    <col min="13320" max="13320" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="13321" max="13322" width="7.5" style="26" customWidth="1"/>
-    <col min="13323" max="13323" width="5.25" style="26" customWidth="1"/>
-    <col min="13324" max="13324" width="13.5" style="26" customWidth="1"/>
-    <col min="13325" max="13326" width="7.5" style="26" customWidth="1"/>
-    <col min="13327" max="13327" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="13328" max="13328" width="7.5" style="26" customWidth="1"/>
-    <col min="13329" max="13330" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13331" max="13331" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="13332" max="13332" width="10.25" style="26" customWidth="1"/>
-    <col min="13333" max="13333" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="13334" max="13334" width="2.25" style="26" customWidth="1"/>
-    <col min="13335" max="13335" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13336" max="13568" width="8.25" style="26"/>
-    <col min="13569" max="13569" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="13570" max="13575" width="7.5" style="26" customWidth="1"/>
-    <col min="13576" max="13576" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="13577" max="13578" width="7.5" style="26" customWidth="1"/>
-    <col min="13579" max="13579" width="5.25" style="26" customWidth="1"/>
-    <col min="13580" max="13580" width="13.5" style="26" customWidth="1"/>
-    <col min="13581" max="13582" width="7.5" style="26" customWidth="1"/>
-    <col min="13583" max="13583" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="13584" max="13584" width="7.5" style="26" customWidth="1"/>
-    <col min="13585" max="13586" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13587" max="13587" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="13588" max="13588" width="10.25" style="26" customWidth="1"/>
-    <col min="13589" max="13589" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="13590" max="13590" width="2.25" style="26" customWidth="1"/>
-    <col min="13591" max="13591" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13592" max="13824" width="8.25" style="26"/>
-    <col min="13825" max="13825" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="13826" max="13831" width="7.5" style="26" customWidth="1"/>
-    <col min="13832" max="13832" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="13833" max="13834" width="7.5" style="26" customWidth="1"/>
-    <col min="13835" max="13835" width="5.25" style="26" customWidth="1"/>
-    <col min="13836" max="13836" width="13.5" style="26" customWidth="1"/>
-    <col min="13837" max="13838" width="7.5" style="26" customWidth="1"/>
-    <col min="13839" max="13839" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="13840" max="13840" width="7.5" style="26" customWidth="1"/>
-    <col min="13841" max="13842" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13843" max="13843" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="13844" max="13844" width="10.25" style="26" customWidth="1"/>
-    <col min="13845" max="13845" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="13846" max="13846" width="2.25" style="26" customWidth="1"/>
-    <col min="13847" max="13847" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="13848" max="14080" width="8.25" style="26"/>
-    <col min="14081" max="14081" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="14082" max="14087" width="7.5" style="26" customWidth="1"/>
-    <col min="14088" max="14088" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="14089" max="14090" width="7.5" style="26" customWidth="1"/>
-    <col min="14091" max="14091" width="5.25" style="26" customWidth="1"/>
-    <col min="14092" max="14092" width="13.5" style="26" customWidth="1"/>
-    <col min="14093" max="14094" width="7.5" style="26" customWidth="1"/>
-    <col min="14095" max="14095" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="14096" max="14096" width="7.5" style="26" customWidth="1"/>
-    <col min="14097" max="14098" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14099" max="14099" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="14100" max="14100" width="10.25" style="26" customWidth="1"/>
-    <col min="14101" max="14101" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="14102" max="14102" width="2.25" style="26" customWidth="1"/>
-    <col min="14103" max="14103" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14104" max="14336" width="8.25" style="26"/>
-    <col min="14337" max="14337" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="14338" max="14343" width="7.5" style="26" customWidth="1"/>
-    <col min="14344" max="14344" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="14345" max="14346" width="7.5" style="26" customWidth="1"/>
-    <col min="14347" max="14347" width="5.25" style="26" customWidth="1"/>
-    <col min="14348" max="14348" width="13.5" style="26" customWidth="1"/>
-    <col min="14349" max="14350" width="7.5" style="26" customWidth="1"/>
-    <col min="14351" max="14351" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="14352" max="14352" width="7.5" style="26" customWidth="1"/>
-    <col min="14353" max="14354" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14355" max="14355" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="14356" max="14356" width="10.25" style="26" customWidth="1"/>
-    <col min="14357" max="14357" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="14358" max="14358" width="2.25" style="26" customWidth="1"/>
-    <col min="14359" max="14359" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14360" max="14592" width="8.25" style="26"/>
-    <col min="14593" max="14593" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="14594" max="14599" width="7.5" style="26" customWidth="1"/>
-    <col min="14600" max="14600" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="14601" max="14602" width="7.5" style="26" customWidth="1"/>
-    <col min="14603" max="14603" width="5.25" style="26" customWidth="1"/>
-    <col min="14604" max="14604" width="13.5" style="26" customWidth="1"/>
-    <col min="14605" max="14606" width="7.5" style="26" customWidth="1"/>
-    <col min="14607" max="14607" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="14608" max="14608" width="7.5" style="26" customWidth="1"/>
-    <col min="14609" max="14610" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14611" max="14611" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="14612" max="14612" width="10.25" style="26" customWidth="1"/>
-    <col min="14613" max="14613" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="14614" max="14614" width="2.25" style="26" customWidth="1"/>
-    <col min="14615" max="14615" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14616" max="14848" width="8.25" style="26"/>
-    <col min="14849" max="14849" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="14850" max="14855" width="7.5" style="26" customWidth="1"/>
-    <col min="14856" max="14856" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="14857" max="14858" width="7.5" style="26" customWidth="1"/>
-    <col min="14859" max="14859" width="5.25" style="26" customWidth="1"/>
-    <col min="14860" max="14860" width="13.5" style="26" customWidth="1"/>
-    <col min="14861" max="14862" width="7.5" style="26" customWidth="1"/>
-    <col min="14863" max="14863" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="14864" max="14864" width="7.5" style="26" customWidth="1"/>
-    <col min="14865" max="14866" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14867" max="14867" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="14868" max="14868" width="10.25" style="26" customWidth="1"/>
-    <col min="14869" max="14869" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="14870" max="14870" width="2.25" style="26" customWidth="1"/>
-    <col min="14871" max="14871" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="14872" max="15104" width="8.25" style="26"/>
-    <col min="15105" max="15105" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="15106" max="15111" width="7.5" style="26" customWidth="1"/>
-    <col min="15112" max="15112" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="15113" max="15114" width="7.5" style="26" customWidth="1"/>
-    <col min="15115" max="15115" width="5.25" style="26" customWidth="1"/>
-    <col min="15116" max="15116" width="13.5" style="26" customWidth="1"/>
-    <col min="15117" max="15118" width="7.5" style="26" customWidth="1"/>
-    <col min="15119" max="15119" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="15120" max="15120" width="7.5" style="26" customWidth="1"/>
-    <col min="15121" max="15122" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15123" max="15123" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="15124" max="15124" width="10.25" style="26" customWidth="1"/>
-    <col min="15125" max="15125" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="15126" max="15126" width="2.25" style="26" customWidth="1"/>
-    <col min="15127" max="15127" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15128" max="15360" width="8.25" style="26"/>
-    <col min="15361" max="15361" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="15362" max="15367" width="7.5" style="26" customWidth="1"/>
-    <col min="15368" max="15368" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="15369" max="15370" width="7.5" style="26" customWidth="1"/>
-    <col min="15371" max="15371" width="5.25" style="26" customWidth="1"/>
-    <col min="15372" max="15372" width="13.5" style="26" customWidth="1"/>
-    <col min="15373" max="15374" width="7.5" style="26" customWidth="1"/>
-    <col min="15375" max="15375" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="15376" max="15376" width="7.5" style="26" customWidth="1"/>
-    <col min="15377" max="15378" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15379" max="15379" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="15380" max="15380" width="10.25" style="26" customWidth="1"/>
-    <col min="15381" max="15381" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="15382" max="15382" width="2.25" style="26" customWidth="1"/>
-    <col min="15383" max="15383" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15384" max="15616" width="8.25" style="26"/>
-    <col min="15617" max="15617" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="15618" max="15623" width="7.5" style="26" customWidth="1"/>
-    <col min="15624" max="15624" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="15625" max="15626" width="7.5" style="26" customWidth="1"/>
-    <col min="15627" max="15627" width="5.25" style="26" customWidth="1"/>
-    <col min="15628" max="15628" width="13.5" style="26" customWidth="1"/>
-    <col min="15629" max="15630" width="7.5" style="26" customWidth="1"/>
-    <col min="15631" max="15631" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="15632" max="15632" width="7.5" style="26" customWidth="1"/>
-    <col min="15633" max="15634" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15635" max="15635" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="15636" max="15636" width="10.25" style="26" customWidth="1"/>
-    <col min="15637" max="15637" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="15638" max="15638" width="2.25" style="26" customWidth="1"/>
-    <col min="15639" max="15639" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15640" max="15872" width="8.25" style="26"/>
-    <col min="15873" max="15873" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="15874" max="15879" width="7.5" style="26" customWidth="1"/>
-    <col min="15880" max="15880" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="15881" max="15882" width="7.5" style="26" customWidth="1"/>
-    <col min="15883" max="15883" width="5.25" style="26" customWidth="1"/>
-    <col min="15884" max="15884" width="13.5" style="26" customWidth="1"/>
-    <col min="15885" max="15886" width="7.5" style="26" customWidth="1"/>
-    <col min="15887" max="15887" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="15888" max="15888" width="7.5" style="26" customWidth="1"/>
-    <col min="15889" max="15890" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15891" max="15891" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="15892" max="15892" width="10.25" style="26" customWidth="1"/>
-    <col min="15893" max="15893" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="15894" max="15894" width="2.25" style="26" customWidth="1"/>
-    <col min="15895" max="15895" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="15896" max="16128" width="8.25" style="26"/>
-    <col min="16129" max="16129" width="3.62962962962963" style="26" customWidth="1"/>
-    <col min="16130" max="16135" width="7.5" style="26" customWidth="1"/>
-    <col min="16136" max="16136" width="9.37962962962963" style="26" customWidth="1"/>
-    <col min="16137" max="16138" width="7.5" style="26" customWidth="1"/>
-    <col min="16139" max="16139" width="5.25" style="26" customWidth="1"/>
-    <col min="16140" max="16140" width="13.5" style="26" customWidth="1"/>
-    <col min="16141" max="16142" width="7.5" style="26" customWidth="1"/>
-    <col min="16143" max="16143" width="8.87962962962963" style="26" customWidth="1"/>
-    <col min="16144" max="16144" width="7.5" style="26" customWidth="1"/>
-    <col min="16145" max="16146" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="16147" max="16147" width="8.37962962962963" style="26" customWidth="1"/>
-    <col min="16148" max="16148" width="10.25" style="26" customWidth="1"/>
-    <col min="16149" max="16149" width="11.3796296296296" style="26" customWidth="1"/>
-    <col min="16150" max="16150" width="2.25" style="26" customWidth="1"/>
-    <col min="16151" max="16151" width="8.25" style="26" hidden="1" customWidth="1"/>
-    <col min="16152" max="16384" width="8.25" style="26"/>
+    <col min="1" max="1" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="2" max="11" width="12.1296296296296" style="24" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="24" customWidth="1"/>
+    <col min="13" max="14" width="7.5" style="24" customWidth="1"/>
+    <col min="15" max="15" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="24" customWidth="1"/>
+    <col min="17" max="18" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="24" customWidth="1"/>
+    <col min="21" max="21" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="22" max="22" width="2.25" style="24" customWidth="1"/>
+    <col min="23" max="23" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="24" max="256" width="8.25" style="24"/>
+    <col min="257" max="257" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="258" max="263" width="7.5" style="24" customWidth="1"/>
+    <col min="264" max="264" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="265" max="266" width="7.5" style="24" customWidth="1"/>
+    <col min="267" max="267" width="5.25" style="24" customWidth="1"/>
+    <col min="268" max="268" width="13.5" style="24" customWidth="1"/>
+    <col min="269" max="270" width="7.5" style="24" customWidth="1"/>
+    <col min="271" max="271" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="272" max="272" width="7.5" style="24" customWidth="1"/>
+    <col min="273" max="274" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="275" max="275" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="276" max="276" width="10.25" style="24" customWidth="1"/>
+    <col min="277" max="277" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="278" max="278" width="2.25" style="24" customWidth="1"/>
+    <col min="279" max="279" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="280" max="512" width="8.25" style="24"/>
+    <col min="513" max="513" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="514" max="519" width="7.5" style="24" customWidth="1"/>
+    <col min="520" max="520" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="521" max="522" width="7.5" style="24" customWidth="1"/>
+    <col min="523" max="523" width="5.25" style="24" customWidth="1"/>
+    <col min="524" max="524" width="13.5" style="24" customWidth="1"/>
+    <col min="525" max="526" width="7.5" style="24" customWidth="1"/>
+    <col min="527" max="527" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="528" max="528" width="7.5" style="24" customWidth="1"/>
+    <col min="529" max="530" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="531" max="531" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="532" max="532" width="10.25" style="24" customWidth="1"/>
+    <col min="533" max="533" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="534" max="534" width="2.25" style="24" customWidth="1"/>
+    <col min="535" max="535" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="536" max="768" width="8.25" style="24"/>
+    <col min="769" max="769" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="770" max="775" width="7.5" style="24" customWidth="1"/>
+    <col min="776" max="776" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="777" max="778" width="7.5" style="24" customWidth="1"/>
+    <col min="779" max="779" width="5.25" style="24" customWidth="1"/>
+    <col min="780" max="780" width="13.5" style="24" customWidth="1"/>
+    <col min="781" max="782" width="7.5" style="24" customWidth="1"/>
+    <col min="783" max="783" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="784" max="784" width="7.5" style="24" customWidth="1"/>
+    <col min="785" max="786" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="787" max="787" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="788" max="788" width="10.25" style="24" customWidth="1"/>
+    <col min="789" max="789" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="790" max="790" width="2.25" style="24" customWidth="1"/>
+    <col min="791" max="791" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="792" max="1024" width="8.25" style="24"/>
+    <col min="1025" max="1025" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="1026" max="1031" width="7.5" style="24" customWidth="1"/>
+    <col min="1032" max="1032" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="1033" max="1034" width="7.5" style="24" customWidth="1"/>
+    <col min="1035" max="1035" width="5.25" style="24" customWidth="1"/>
+    <col min="1036" max="1036" width="13.5" style="24" customWidth="1"/>
+    <col min="1037" max="1038" width="7.5" style="24" customWidth="1"/>
+    <col min="1039" max="1039" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="1040" max="1040" width="7.5" style="24" customWidth="1"/>
+    <col min="1041" max="1042" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1043" max="1043" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="1044" max="1044" width="10.25" style="24" customWidth="1"/>
+    <col min="1045" max="1045" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="1046" max="1046" width="2.25" style="24" customWidth="1"/>
+    <col min="1047" max="1047" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1048" max="1280" width="8.25" style="24"/>
+    <col min="1281" max="1281" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="1282" max="1287" width="7.5" style="24" customWidth="1"/>
+    <col min="1288" max="1288" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="1289" max="1290" width="7.5" style="24" customWidth="1"/>
+    <col min="1291" max="1291" width="5.25" style="24" customWidth="1"/>
+    <col min="1292" max="1292" width="13.5" style="24" customWidth="1"/>
+    <col min="1293" max="1294" width="7.5" style="24" customWidth="1"/>
+    <col min="1295" max="1295" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="1296" max="1296" width="7.5" style="24" customWidth="1"/>
+    <col min="1297" max="1298" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1299" max="1299" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="1300" max="1300" width="10.25" style="24" customWidth="1"/>
+    <col min="1301" max="1301" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="1302" max="1302" width="2.25" style="24" customWidth="1"/>
+    <col min="1303" max="1303" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1304" max="1536" width="8.25" style="24"/>
+    <col min="1537" max="1537" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="1538" max="1543" width="7.5" style="24" customWidth="1"/>
+    <col min="1544" max="1544" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="1545" max="1546" width="7.5" style="24" customWidth="1"/>
+    <col min="1547" max="1547" width="5.25" style="24" customWidth="1"/>
+    <col min="1548" max="1548" width="13.5" style="24" customWidth="1"/>
+    <col min="1549" max="1550" width="7.5" style="24" customWidth="1"/>
+    <col min="1551" max="1551" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="1552" max="1552" width="7.5" style="24" customWidth="1"/>
+    <col min="1553" max="1554" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1555" max="1555" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="1556" max="1556" width="10.25" style="24" customWidth="1"/>
+    <col min="1557" max="1557" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="1558" max="1558" width="2.25" style="24" customWidth="1"/>
+    <col min="1559" max="1559" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1560" max="1792" width="8.25" style="24"/>
+    <col min="1793" max="1793" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="1794" max="1799" width="7.5" style="24" customWidth="1"/>
+    <col min="1800" max="1800" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="1801" max="1802" width="7.5" style="24" customWidth="1"/>
+    <col min="1803" max="1803" width="5.25" style="24" customWidth="1"/>
+    <col min="1804" max="1804" width="13.5" style="24" customWidth="1"/>
+    <col min="1805" max="1806" width="7.5" style="24" customWidth="1"/>
+    <col min="1807" max="1807" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="1808" max="1808" width="7.5" style="24" customWidth="1"/>
+    <col min="1809" max="1810" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1811" max="1811" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="1812" max="1812" width="10.25" style="24" customWidth="1"/>
+    <col min="1813" max="1813" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="1814" max="1814" width="2.25" style="24" customWidth="1"/>
+    <col min="1815" max="1815" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="1816" max="2048" width="8.25" style="24"/>
+    <col min="2049" max="2049" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="2050" max="2055" width="7.5" style="24" customWidth="1"/>
+    <col min="2056" max="2056" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="2057" max="2058" width="7.5" style="24" customWidth="1"/>
+    <col min="2059" max="2059" width="5.25" style="24" customWidth="1"/>
+    <col min="2060" max="2060" width="13.5" style="24" customWidth="1"/>
+    <col min="2061" max="2062" width="7.5" style="24" customWidth="1"/>
+    <col min="2063" max="2063" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="2064" max="2064" width="7.5" style="24" customWidth="1"/>
+    <col min="2065" max="2066" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2067" max="2067" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="2068" max="2068" width="10.25" style="24" customWidth="1"/>
+    <col min="2069" max="2069" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="2070" max="2070" width="2.25" style="24" customWidth="1"/>
+    <col min="2071" max="2071" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2072" max="2304" width="8.25" style="24"/>
+    <col min="2305" max="2305" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="2306" max="2311" width="7.5" style="24" customWidth="1"/>
+    <col min="2312" max="2312" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="2313" max="2314" width="7.5" style="24" customWidth="1"/>
+    <col min="2315" max="2315" width="5.25" style="24" customWidth="1"/>
+    <col min="2316" max="2316" width="13.5" style="24" customWidth="1"/>
+    <col min="2317" max="2318" width="7.5" style="24" customWidth="1"/>
+    <col min="2319" max="2319" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="2320" max="2320" width="7.5" style="24" customWidth="1"/>
+    <col min="2321" max="2322" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2323" max="2323" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="2324" max="2324" width="10.25" style="24" customWidth="1"/>
+    <col min="2325" max="2325" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="2326" max="2326" width="2.25" style="24" customWidth="1"/>
+    <col min="2327" max="2327" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2328" max="2560" width="8.25" style="24"/>
+    <col min="2561" max="2561" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="2562" max="2567" width="7.5" style="24" customWidth="1"/>
+    <col min="2568" max="2568" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="2569" max="2570" width="7.5" style="24" customWidth="1"/>
+    <col min="2571" max="2571" width="5.25" style="24" customWidth="1"/>
+    <col min="2572" max="2572" width="13.5" style="24" customWidth="1"/>
+    <col min="2573" max="2574" width="7.5" style="24" customWidth="1"/>
+    <col min="2575" max="2575" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="2576" max="2576" width="7.5" style="24" customWidth="1"/>
+    <col min="2577" max="2578" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2579" max="2579" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="2580" max="2580" width="10.25" style="24" customWidth="1"/>
+    <col min="2581" max="2581" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="2582" max="2582" width="2.25" style="24" customWidth="1"/>
+    <col min="2583" max="2583" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2584" max="2816" width="8.25" style="24"/>
+    <col min="2817" max="2817" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="2818" max="2823" width="7.5" style="24" customWidth="1"/>
+    <col min="2824" max="2824" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="2825" max="2826" width="7.5" style="24" customWidth="1"/>
+    <col min="2827" max="2827" width="5.25" style="24" customWidth="1"/>
+    <col min="2828" max="2828" width="13.5" style="24" customWidth="1"/>
+    <col min="2829" max="2830" width="7.5" style="24" customWidth="1"/>
+    <col min="2831" max="2831" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="2832" max="2832" width="7.5" style="24" customWidth="1"/>
+    <col min="2833" max="2834" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2835" max="2835" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="2836" max="2836" width="10.25" style="24" customWidth="1"/>
+    <col min="2837" max="2837" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="2838" max="2838" width="2.25" style="24" customWidth="1"/>
+    <col min="2839" max="2839" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="2840" max="3072" width="8.25" style="24"/>
+    <col min="3073" max="3073" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="3074" max="3079" width="7.5" style="24" customWidth="1"/>
+    <col min="3080" max="3080" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="3081" max="3082" width="7.5" style="24" customWidth="1"/>
+    <col min="3083" max="3083" width="5.25" style="24" customWidth="1"/>
+    <col min="3084" max="3084" width="13.5" style="24" customWidth="1"/>
+    <col min="3085" max="3086" width="7.5" style="24" customWidth="1"/>
+    <col min="3087" max="3087" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="3088" max="3088" width="7.5" style="24" customWidth="1"/>
+    <col min="3089" max="3090" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3091" max="3091" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="3092" max="3092" width="10.25" style="24" customWidth="1"/>
+    <col min="3093" max="3093" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="3094" max="3094" width="2.25" style="24" customWidth="1"/>
+    <col min="3095" max="3095" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3096" max="3328" width="8.25" style="24"/>
+    <col min="3329" max="3329" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="3330" max="3335" width="7.5" style="24" customWidth="1"/>
+    <col min="3336" max="3336" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="3337" max="3338" width="7.5" style="24" customWidth="1"/>
+    <col min="3339" max="3339" width="5.25" style="24" customWidth="1"/>
+    <col min="3340" max="3340" width="13.5" style="24" customWidth="1"/>
+    <col min="3341" max="3342" width="7.5" style="24" customWidth="1"/>
+    <col min="3343" max="3343" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="3344" max="3344" width="7.5" style="24" customWidth="1"/>
+    <col min="3345" max="3346" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3347" max="3347" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="3348" max="3348" width="10.25" style="24" customWidth="1"/>
+    <col min="3349" max="3349" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="3350" max="3350" width="2.25" style="24" customWidth="1"/>
+    <col min="3351" max="3351" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3352" max="3584" width="8.25" style="24"/>
+    <col min="3585" max="3585" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="3586" max="3591" width="7.5" style="24" customWidth="1"/>
+    <col min="3592" max="3592" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="3593" max="3594" width="7.5" style="24" customWidth="1"/>
+    <col min="3595" max="3595" width="5.25" style="24" customWidth="1"/>
+    <col min="3596" max="3596" width="13.5" style="24" customWidth="1"/>
+    <col min="3597" max="3598" width="7.5" style="24" customWidth="1"/>
+    <col min="3599" max="3599" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="3600" max="3600" width="7.5" style="24" customWidth="1"/>
+    <col min="3601" max="3602" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3603" max="3603" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="3604" max="3604" width="10.25" style="24" customWidth="1"/>
+    <col min="3605" max="3605" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="3606" max="3606" width="2.25" style="24" customWidth="1"/>
+    <col min="3607" max="3607" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3608" max="3840" width="8.25" style="24"/>
+    <col min="3841" max="3841" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="3842" max="3847" width="7.5" style="24" customWidth="1"/>
+    <col min="3848" max="3848" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="3849" max="3850" width="7.5" style="24" customWidth="1"/>
+    <col min="3851" max="3851" width="5.25" style="24" customWidth="1"/>
+    <col min="3852" max="3852" width="13.5" style="24" customWidth="1"/>
+    <col min="3853" max="3854" width="7.5" style="24" customWidth="1"/>
+    <col min="3855" max="3855" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="3856" max="3856" width="7.5" style="24" customWidth="1"/>
+    <col min="3857" max="3858" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3859" max="3859" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="3860" max="3860" width="10.25" style="24" customWidth="1"/>
+    <col min="3861" max="3861" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="3862" max="3862" width="2.25" style="24" customWidth="1"/>
+    <col min="3863" max="3863" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3864" max="4096" width="8.25" style="24"/>
+    <col min="4097" max="4097" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="4098" max="4103" width="7.5" style="24" customWidth="1"/>
+    <col min="4104" max="4104" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="4105" max="4106" width="7.5" style="24" customWidth="1"/>
+    <col min="4107" max="4107" width="5.25" style="24" customWidth="1"/>
+    <col min="4108" max="4108" width="13.5" style="24" customWidth="1"/>
+    <col min="4109" max="4110" width="7.5" style="24" customWidth="1"/>
+    <col min="4111" max="4111" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="4112" max="4112" width="7.5" style="24" customWidth="1"/>
+    <col min="4113" max="4114" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4115" max="4115" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="4116" max="4116" width="10.25" style="24" customWidth="1"/>
+    <col min="4117" max="4117" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="4118" max="4118" width="2.25" style="24" customWidth="1"/>
+    <col min="4119" max="4119" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4120" max="4352" width="8.25" style="24"/>
+    <col min="4353" max="4353" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="4354" max="4359" width="7.5" style="24" customWidth="1"/>
+    <col min="4360" max="4360" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="4361" max="4362" width="7.5" style="24" customWidth="1"/>
+    <col min="4363" max="4363" width="5.25" style="24" customWidth="1"/>
+    <col min="4364" max="4364" width="13.5" style="24" customWidth="1"/>
+    <col min="4365" max="4366" width="7.5" style="24" customWidth="1"/>
+    <col min="4367" max="4367" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="4368" max="4368" width="7.5" style="24" customWidth="1"/>
+    <col min="4369" max="4370" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4371" max="4371" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="4372" max="4372" width="10.25" style="24" customWidth="1"/>
+    <col min="4373" max="4373" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="4374" max="4374" width="2.25" style="24" customWidth="1"/>
+    <col min="4375" max="4375" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4376" max="4608" width="8.25" style="24"/>
+    <col min="4609" max="4609" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="4610" max="4615" width="7.5" style="24" customWidth="1"/>
+    <col min="4616" max="4616" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="4617" max="4618" width="7.5" style="24" customWidth="1"/>
+    <col min="4619" max="4619" width="5.25" style="24" customWidth="1"/>
+    <col min="4620" max="4620" width="13.5" style="24" customWidth="1"/>
+    <col min="4621" max="4622" width="7.5" style="24" customWidth="1"/>
+    <col min="4623" max="4623" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="4624" max="4624" width="7.5" style="24" customWidth="1"/>
+    <col min="4625" max="4626" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4627" max="4627" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="4628" max="4628" width="10.25" style="24" customWidth="1"/>
+    <col min="4629" max="4629" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="4630" max="4630" width="2.25" style="24" customWidth="1"/>
+    <col min="4631" max="4631" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4632" max="4864" width="8.25" style="24"/>
+    <col min="4865" max="4865" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="4866" max="4871" width="7.5" style="24" customWidth="1"/>
+    <col min="4872" max="4872" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="4873" max="4874" width="7.5" style="24" customWidth="1"/>
+    <col min="4875" max="4875" width="5.25" style="24" customWidth="1"/>
+    <col min="4876" max="4876" width="13.5" style="24" customWidth="1"/>
+    <col min="4877" max="4878" width="7.5" style="24" customWidth="1"/>
+    <col min="4879" max="4879" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="4880" max="4880" width="7.5" style="24" customWidth="1"/>
+    <col min="4881" max="4882" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4883" max="4883" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="4884" max="4884" width="10.25" style="24" customWidth="1"/>
+    <col min="4885" max="4885" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="4886" max="4886" width="2.25" style="24" customWidth="1"/>
+    <col min="4887" max="4887" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="4888" max="5120" width="8.25" style="24"/>
+    <col min="5121" max="5121" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="5122" max="5127" width="7.5" style="24" customWidth="1"/>
+    <col min="5128" max="5128" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="5129" max="5130" width="7.5" style="24" customWidth="1"/>
+    <col min="5131" max="5131" width="5.25" style="24" customWidth="1"/>
+    <col min="5132" max="5132" width="13.5" style="24" customWidth="1"/>
+    <col min="5133" max="5134" width="7.5" style="24" customWidth="1"/>
+    <col min="5135" max="5135" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="5136" max="5136" width="7.5" style="24" customWidth="1"/>
+    <col min="5137" max="5138" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5139" max="5139" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="5140" max="5140" width="10.25" style="24" customWidth="1"/>
+    <col min="5141" max="5141" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="5142" max="5142" width="2.25" style="24" customWidth="1"/>
+    <col min="5143" max="5143" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5144" max="5376" width="8.25" style="24"/>
+    <col min="5377" max="5377" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="5378" max="5383" width="7.5" style="24" customWidth="1"/>
+    <col min="5384" max="5384" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="5385" max="5386" width="7.5" style="24" customWidth="1"/>
+    <col min="5387" max="5387" width="5.25" style="24" customWidth="1"/>
+    <col min="5388" max="5388" width="13.5" style="24" customWidth="1"/>
+    <col min="5389" max="5390" width="7.5" style="24" customWidth="1"/>
+    <col min="5391" max="5391" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="5392" max="5392" width="7.5" style="24" customWidth="1"/>
+    <col min="5393" max="5394" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5395" max="5395" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="5396" max="5396" width="10.25" style="24" customWidth="1"/>
+    <col min="5397" max="5397" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="5398" max="5398" width="2.25" style="24" customWidth="1"/>
+    <col min="5399" max="5399" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5400" max="5632" width="8.25" style="24"/>
+    <col min="5633" max="5633" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="5634" max="5639" width="7.5" style="24" customWidth="1"/>
+    <col min="5640" max="5640" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="5641" max="5642" width="7.5" style="24" customWidth="1"/>
+    <col min="5643" max="5643" width="5.25" style="24" customWidth="1"/>
+    <col min="5644" max="5644" width="13.5" style="24" customWidth="1"/>
+    <col min="5645" max="5646" width="7.5" style="24" customWidth="1"/>
+    <col min="5647" max="5647" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="5648" max="5648" width="7.5" style="24" customWidth="1"/>
+    <col min="5649" max="5650" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5651" max="5651" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="5652" max="5652" width="10.25" style="24" customWidth="1"/>
+    <col min="5653" max="5653" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="5654" max="5654" width="2.25" style="24" customWidth="1"/>
+    <col min="5655" max="5655" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5656" max="5888" width="8.25" style="24"/>
+    <col min="5889" max="5889" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="5890" max="5895" width="7.5" style="24" customWidth="1"/>
+    <col min="5896" max="5896" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="5897" max="5898" width="7.5" style="24" customWidth="1"/>
+    <col min="5899" max="5899" width="5.25" style="24" customWidth="1"/>
+    <col min="5900" max="5900" width="13.5" style="24" customWidth="1"/>
+    <col min="5901" max="5902" width="7.5" style="24" customWidth="1"/>
+    <col min="5903" max="5903" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="5904" max="5904" width="7.5" style="24" customWidth="1"/>
+    <col min="5905" max="5906" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5907" max="5907" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="5908" max="5908" width="10.25" style="24" customWidth="1"/>
+    <col min="5909" max="5909" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="5910" max="5910" width="2.25" style="24" customWidth="1"/>
+    <col min="5911" max="5911" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="5912" max="6144" width="8.25" style="24"/>
+    <col min="6145" max="6145" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="6146" max="6151" width="7.5" style="24" customWidth="1"/>
+    <col min="6152" max="6152" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="6153" max="6154" width="7.5" style="24" customWidth="1"/>
+    <col min="6155" max="6155" width="5.25" style="24" customWidth="1"/>
+    <col min="6156" max="6156" width="13.5" style="24" customWidth="1"/>
+    <col min="6157" max="6158" width="7.5" style="24" customWidth="1"/>
+    <col min="6159" max="6159" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="6160" max="6160" width="7.5" style="24" customWidth="1"/>
+    <col min="6161" max="6162" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6163" max="6163" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="6164" max="6164" width="10.25" style="24" customWidth="1"/>
+    <col min="6165" max="6165" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="6166" max="6166" width="2.25" style="24" customWidth="1"/>
+    <col min="6167" max="6167" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6168" max="6400" width="8.25" style="24"/>
+    <col min="6401" max="6401" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="6402" max="6407" width="7.5" style="24" customWidth="1"/>
+    <col min="6408" max="6408" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="6409" max="6410" width="7.5" style="24" customWidth="1"/>
+    <col min="6411" max="6411" width="5.25" style="24" customWidth="1"/>
+    <col min="6412" max="6412" width="13.5" style="24" customWidth="1"/>
+    <col min="6413" max="6414" width="7.5" style="24" customWidth="1"/>
+    <col min="6415" max="6415" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="6416" max="6416" width="7.5" style="24" customWidth="1"/>
+    <col min="6417" max="6418" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6419" max="6419" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="6420" max="6420" width="10.25" style="24" customWidth="1"/>
+    <col min="6421" max="6421" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="6422" max="6422" width="2.25" style="24" customWidth="1"/>
+    <col min="6423" max="6423" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6424" max="6656" width="8.25" style="24"/>
+    <col min="6657" max="6657" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="6658" max="6663" width="7.5" style="24" customWidth="1"/>
+    <col min="6664" max="6664" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="6665" max="6666" width="7.5" style="24" customWidth="1"/>
+    <col min="6667" max="6667" width="5.25" style="24" customWidth="1"/>
+    <col min="6668" max="6668" width="13.5" style="24" customWidth="1"/>
+    <col min="6669" max="6670" width="7.5" style="24" customWidth="1"/>
+    <col min="6671" max="6671" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="6672" max="6672" width="7.5" style="24" customWidth="1"/>
+    <col min="6673" max="6674" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6675" max="6675" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="6676" max="6676" width="10.25" style="24" customWidth="1"/>
+    <col min="6677" max="6677" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="6678" max="6678" width="2.25" style="24" customWidth="1"/>
+    <col min="6679" max="6679" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6680" max="6912" width="8.25" style="24"/>
+    <col min="6913" max="6913" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="6914" max="6919" width="7.5" style="24" customWidth="1"/>
+    <col min="6920" max="6920" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="6921" max="6922" width="7.5" style="24" customWidth="1"/>
+    <col min="6923" max="6923" width="5.25" style="24" customWidth="1"/>
+    <col min="6924" max="6924" width="13.5" style="24" customWidth="1"/>
+    <col min="6925" max="6926" width="7.5" style="24" customWidth="1"/>
+    <col min="6927" max="6927" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="6928" max="6928" width="7.5" style="24" customWidth="1"/>
+    <col min="6929" max="6930" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6931" max="6931" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="6932" max="6932" width="10.25" style="24" customWidth="1"/>
+    <col min="6933" max="6933" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="6934" max="6934" width="2.25" style="24" customWidth="1"/>
+    <col min="6935" max="6935" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="6936" max="7168" width="8.25" style="24"/>
+    <col min="7169" max="7169" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="7170" max="7175" width="7.5" style="24" customWidth="1"/>
+    <col min="7176" max="7176" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="7177" max="7178" width="7.5" style="24" customWidth="1"/>
+    <col min="7179" max="7179" width="5.25" style="24" customWidth="1"/>
+    <col min="7180" max="7180" width="13.5" style="24" customWidth="1"/>
+    <col min="7181" max="7182" width="7.5" style="24" customWidth="1"/>
+    <col min="7183" max="7183" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="7184" max="7184" width="7.5" style="24" customWidth="1"/>
+    <col min="7185" max="7186" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7187" max="7187" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="7188" max="7188" width="10.25" style="24" customWidth="1"/>
+    <col min="7189" max="7189" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="7190" max="7190" width="2.25" style="24" customWidth="1"/>
+    <col min="7191" max="7191" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7192" max="7424" width="8.25" style="24"/>
+    <col min="7425" max="7425" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="7426" max="7431" width="7.5" style="24" customWidth="1"/>
+    <col min="7432" max="7432" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="7433" max="7434" width="7.5" style="24" customWidth="1"/>
+    <col min="7435" max="7435" width="5.25" style="24" customWidth="1"/>
+    <col min="7436" max="7436" width="13.5" style="24" customWidth="1"/>
+    <col min="7437" max="7438" width="7.5" style="24" customWidth="1"/>
+    <col min="7439" max="7439" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="7440" max="7440" width="7.5" style="24" customWidth="1"/>
+    <col min="7441" max="7442" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7443" max="7443" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="7444" max="7444" width="10.25" style="24" customWidth="1"/>
+    <col min="7445" max="7445" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="7446" max="7446" width="2.25" style="24" customWidth="1"/>
+    <col min="7447" max="7447" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7448" max="7680" width="8.25" style="24"/>
+    <col min="7681" max="7681" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="7682" max="7687" width="7.5" style="24" customWidth="1"/>
+    <col min="7688" max="7688" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="7689" max="7690" width="7.5" style="24" customWidth="1"/>
+    <col min="7691" max="7691" width="5.25" style="24" customWidth="1"/>
+    <col min="7692" max="7692" width="13.5" style="24" customWidth="1"/>
+    <col min="7693" max="7694" width="7.5" style="24" customWidth="1"/>
+    <col min="7695" max="7695" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="7696" max="7696" width="7.5" style="24" customWidth="1"/>
+    <col min="7697" max="7698" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7699" max="7699" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="7700" max="7700" width="10.25" style="24" customWidth="1"/>
+    <col min="7701" max="7701" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="7702" max="7702" width="2.25" style="24" customWidth="1"/>
+    <col min="7703" max="7703" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7704" max="7936" width="8.25" style="24"/>
+    <col min="7937" max="7937" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="7938" max="7943" width="7.5" style="24" customWidth="1"/>
+    <col min="7944" max="7944" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="7945" max="7946" width="7.5" style="24" customWidth="1"/>
+    <col min="7947" max="7947" width="5.25" style="24" customWidth="1"/>
+    <col min="7948" max="7948" width="13.5" style="24" customWidth="1"/>
+    <col min="7949" max="7950" width="7.5" style="24" customWidth="1"/>
+    <col min="7951" max="7951" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="7952" max="7952" width="7.5" style="24" customWidth="1"/>
+    <col min="7953" max="7954" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7955" max="7955" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="7956" max="7956" width="10.25" style="24" customWidth="1"/>
+    <col min="7957" max="7957" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="7958" max="7958" width="2.25" style="24" customWidth="1"/>
+    <col min="7959" max="7959" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="7960" max="8192" width="8.25" style="24"/>
+    <col min="8193" max="8193" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="8194" max="8199" width="7.5" style="24" customWidth="1"/>
+    <col min="8200" max="8200" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="8201" max="8202" width="7.5" style="24" customWidth="1"/>
+    <col min="8203" max="8203" width="5.25" style="24" customWidth="1"/>
+    <col min="8204" max="8204" width="13.5" style="24" customWidth="1"/>
+    <col min="8205" max="8206" width="7.5" style="24" customWidth="1"/>
+    <col min="8207" max="8207" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="8208" max="8208" width="7.5" style="24" customWidth="1"/>
+    <col min="8209" max="8210" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8211" max="8211" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="8212" max="8212" width="10.25" style="24" customWidth="1"/>
+    <col min="8213" max="8213" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="8214" max="8214" width="2.25" style="24" customWidth="1"/>
+    <col min="8215" max="8215" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8216" max="8448" width="8.25" style="24"/>
+    <col min="8449" max="8449" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="8450" max="8455" width="7.5" style="24" customWidth="1"/>
+    <col min="8456" max="8456" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="8457" max="8458" width="7.5" style="24" customWidth="1"/>
+    <col min="8459" max="8459" width="5.25" style="24" customWidth="1"/>
+    <col min="8460" max="8460" width="13.5" style="24" customWidth="1"/>
+    <col min="8461" max="8462" width="7.5" style="24" customWidth="1"/>
+    <col min="8463" max="8463" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="8464" max="8464" width="7.5" style="24" customWidth="1"/>
+    <col min="8465" max="8466" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8467" max="8467" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="8468" max="8468" width="10.25" style="24" customWidth="1"/>
+    <col min="8469" max="8469" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="8470" max="8470" width="2.25" style="24" customWidth="1"/>
+    <col min="8471" max="8471" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8472" max="8704" width="8.25" style="24"/>
+    <col min="8705" max="8705" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="8706" max="8711" width="7.5" style="24" customWidth="1"/>
+    <col min="8712" max="8712" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="8713" max="8714" width="7.5" style="24" customWidth="1"/>
+    <col min="8715" max="8715" width="5.25" style="24" customWidth="1"/>
+    <col min="8716" max="8716" width="13.5" style="24" customWidth="1"/>
+    <col min="8717" max="8718" width="7.5" style="24" customWidth="1"/>
+    <col min="8719" max="8719" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="8720" max="8720" width="7.5" style="24" customWidth="1"/>
+    <col min="8721" max="8722" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8723" max="8723" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="8724" max="8724" width="10.25" style="24" customWidth="1"/>
+    <col min="8725" max="8725" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="8726" max="8726" width="2.25" style="24" customWidth="1"/>
+    <col min="8727" max="8727" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8728" max="8960" width="8.25" style="24"/>
+    <col min="8961" max="8961" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="8962" max="8967" width="7.5" style="24" customWidth="1"/>
+    <col min="8968" max="8968" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="8969" max="8970" width="7.5" style="24" customWidth="1"/>
+    <col min="8971" max="8971" width="5.25" style="24" customWidth="1"/>
+    <col min="8972" max="8972" width="13.5" style="24" customWidth="1"/>
+    <col min="8973" max="8974" width="7.5" style="24" customWidth="1"/>
+    <col min="8975" max="8975" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="8976" max="8976" width="7.5" style="24" customWidth="1"/>
+    <col min="8977" max="8978" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8979" max="8979" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="8980" max="8980" width="10.25" style="24" customWidth="1"/>
+    <col min="8981" max="8981" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="8982" max="8982" width="2.25" style="24" customWidth="1"/>
+    <col min="8983" max="8983" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="8984" max="9216" width="8.25" style="24"/>
+    <col min="9217" max="9217" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="9218" max="9223" width="7.5" style="24" customWidth="1"/>
+    <col min="9224" max="9224" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="9225" max="9226" width="7.5" style="24" customWidth="1"/>
+    <col min="9227" max="9227" width="5.25" style="24" customWidth="1"/>
+    <col min="9228" max="9228" width="13.5" style="24" customWidth="1"/>
+    <col min="9229" max="9230" width="7.5" style="24" customWidth="1"/>
+    <col min="9231" max="9231" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="9232" max="9232" width="7.5" style="24" customWidth="1"/>
+    <col min="9233" max="9234" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9235" max="9235" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="9236" max="9236" width="10.25" style="24" customWidth="1"/>
+    <col min="9237" max="9237" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="9238" max="9238" width="2.25" style="24" customWidth="1"/>
+    <col min="9239" max="9239" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9240" max="9472" width="8.25" style="24"/>
+    <col min="9473" max="9473" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="9474" max="9479" width="7.5" style="24" customWidth="1"/>
+    <col min="9480" max="9480" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="9481" max="9482" width="7.5" style="24" customWidth="1"/>
+    <col min="9483" max="9483" width="5.25" style="24" customWidth="1"/>
+    <col min="9484" max="9484" width="13.5" style="24" customWidth="1"/>
+    <col min="9485" max="9486" width="7.5" style="24" customWidth="1"/>
+    <col min="9487" max="9487" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="9488" max="9488" width="7.5" style="24" customWidth="1"/>
+    <col min="9489" max="9490" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9491" max="9491" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="9492" max="9492" width="10.25" style="24" customWidth="1"/>
+    <col min="9493" max="9493" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="9494" max="9494" width="2.25" style="24" customWidth="1"/>
+    <col min="9495" max="9495" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9496" max="9728" width="8.25" style="24"/>
+    <col min="9729" max="9729" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="9730" max="9735" width="7.5" style="24" customWidth="1"/>
+    <col min="9736" max="9736" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="9737" max="9738" width="7.5" style="24" customWidth="1"/>
+    <col min="9739" max="9739" width="5.25" style="24" customWidth="1"/>
+    <col min="9740" max="9740" width="13.5" style="24" customWidth="1"/>
+    <col min="9741" max="9742" width="7.5" style="24" customWidth="1"/>
+    <col min="9743" max="9743" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="9744" max="9744" width="7.5" style="24" customWidth="1"/>
+    <col min="9745" max="9746" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9747" max="9747" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="9748" max="9748" width="10.25" style="24" customWidth="1"/>
+    <col min="9749" max="9749" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="9750" max="9750" width="2.25" style="24" customWidth="1"/>
+    <col min="9751" max="9751" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="9752" max="9984" width="8.25" style="24"/>
+    <col min="9985" max="9985" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="9986" max="9991" width="7.5" style="24" customWidth="1"/>
+    <col min="9992" max="9992" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="9993" max="9994" width="7.5" style="24" customWidth="1"/>
+    <col min="9995" max="9995" width="5.25" style="24" customWidth="1"/>
+    <col min="9996" max="9996" width="13.5" style="24" customWidth="1"/>
+    <col min="9997" max="9998" width="7.5" style="24" customWidth="1"/>
+    <col min="9999" max="9999" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="10000" max="10000" width="7.5" style="24" customWidth="1"/>
+    <col min="10001" max="10002" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10003" max="10003" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="10004" max="10004" width="10.25" style="24" customWidth="1"/>
+    <col min="10005" max="10005" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="10006" max="10006" width="2.25" style="24" customWidth="1"/>
+    <col min="10007" max="10007" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10008" max="10240" width="8.25" style="24"/>
+    <col min="10241" max="10241" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="10242" max="10247" width="7.5" style="24" customWidth="1"/>
+    <col min="10248" max="10248" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="10249" max="10250" width="7.5" style="24" customWidth="1"/>
+    <col min="10251" max="10251" width="5.25" style="24" customWidth="1"/>
+    <col min="10252" max="10252" width="13.5" style="24" customWidth="1"/>
+    <col min="10253" max="10254" width="7.5" style="24" customWidth="1"/>
+    <col min="10255" max="10255" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="10256" max="10256" width="7.5" style="24" customWidth="1"/>
+    <col min="10257" max="10258" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10259" max="10259" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="10260" max="10260" width="10.25" style="24" customWidth="1"/>
+    <col min="10261" max="10261" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="10262" max="10262" width="2.25" style="24" customWidth="1"/>
+    <col min="10263" max="10263" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10264" max="10496" width="8.25" style="24"/>
+    <col min="10497" max="10497" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="10498" max="10503" width="7.5" style="24" customWidth="1"/>
+    <col min="10504" max="10504" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="10505" max="10506" width="7.5" style="24" customWidth="1"/>
+    <col min="10507" max="10507" width="5.25" style="24" customWidth="1"/>
+    <col min="10508" max="10508" width="13.5" style="24" customWidth="1"/>
+    <col min="10509" max="10510" width="7.5" style="24" customWidth="1"/>
+    <col min="10511" max="10511" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="10512" max="10512" width="7.5" style="24" customWidth="1"/>
+    <col min="10513" max="10514" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10515" max="10515" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="10516" max="10516" width="10.25" style="24" customWidth="1"/>
+    <col min="10517" max="10517" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="10518" max="10518" width="2.25" style="24" customWidth="1"/>
+    <col min="10519" max="10519" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10520" max="10752" width="8.25" style="24"/>
+    <col min="10753" max="10753" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="10754" max="10759" width="7.5" style="24" customWidth="1"/>
+    <col min="10760" max="10760" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="10761" max="10762" width="7.5" style="24" customWidth="1"/>
+    <col min="10763" max="10763" width="5.25" style="24" customWidth="1"/>
+    <col min="10764" max="10764" width="13.5" style="24" customWidth="1"/>
+    <col min="10765" max="10766" width="7.5" style="24" customWidth="1"/>
+    <col min="10767" max="10767" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="10768" max="10768" width="7.5" style="24" customWidth="1"/>
+    <col min="10769" max="10770" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10771" max="10771" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="10772" max="10772" width="10.25" style="24" customWidth="1"/>
+    <col min="10773" max="10773" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="10774" max="10774" width="2.25" style="24" customWidth="1"/>
+    <col min="10775" max="10775" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="10776" max="11008" width="8.25" style="24"/>
+    <col min="11009" max="11009" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="11010" max="11015" width="7.5" style="24" customWidth="1"/>
+    <col min="11016" max="11016" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="11017" max="11018" width="7.5" style="24" customWidth="1"/>
+    <col min="11019" max="11019" width="5.25" style="24" customWidth="1"/>
+    <col min="11020" max="11020" width="13.5" style="24" customWidth="1"/>
+    <col min="11021" max="11022" width="7.5" style="24" customWidth="1"/>
+    <col min="11023" max="11023" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="11024" max="11024" width="7.5" style="24" customWidth="1"/>
+    <col min="11025" max="11026" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11027" max="11027" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="11028" max="11028" width="10.25" style="24" customWidth="1"/>
+    <col min="11029" max="11029" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="11030" max="11030" width="2.25" style="24" customWidth="1"/>
+    <col min="11031" max="11031" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11032" max="11264" width="8.25" style="24"/>
+    <col min="11265" max="11265" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="11266" max="11271" width="7.5" style="24" customWidth="1"/>
+    <col min="11272" max="11272" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="11273" max="11274" width="7.5" style="24" customWidth="1"/>
+    <col min="11275" max="11275" width="5.25" style="24" customWidth="1"/>
+    <col min="11276" max="11276" width="13.5" style="24" customWidth="1"/>
+    <col min="11277" max="11278" width="7.5" style="24" customWidth="1"/>
+    <col min="11279" max="11279" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="11280" max="11280" width="7.5" style="24" customWidth="1"/>
+    <col min="11281" max="11282" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11283" max="11283" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="11284" max="11284" width="10.25" style="24" customWidth="1"/>
+    <col min="11285" max="11285" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="11286" max="11286" width="2.25" style="24" customWidth="1"/>
+    <col min="11287" max="11287" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11288" max="11520" width="8.25" style="24"/>
+    <col min="11521" max="11521" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="11522" max="11527" width="7.5" style="24" customWidth="1"/>
+    <col min="11528" max="11528" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="11529" max="11530" width="7.5" style="24" customWidth="1"/>
+    <col min="11531" max="11531" width="5.25" style="24" customWidth="1"/>
+    <col min="11532" max="11532" width="13.5" style="24" customWidth="1"/>
+    <col min="11533" max="11534" width="7.5" style="24" customWidth="1"/>
+    <col min="11535" max="11535" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="11536" max="11536" width="7.5" style="24" customWidth="1"/>
+    <col min="11537" max="11538" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11539" max="11539" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="11540" max="11540" width="10.25" style="24" customWidth="1"/>
+    <col min="11541" max="11541" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="11542" max="11542" width="2.25" style="24" customWidth="1"/>
+    <col min="11543" max="11543" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11544" max="11776" width="8.25" style="24"/>
+    <col min="11777" max="11777" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="11778" max="11783" width="7.5" style="24" customWidth="1"/>
+    <col min="11784" max="11784" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="11785" max="11786" width="7.5" style="24" customWidth="1"/>
+    <col min="11787" max="11787" width="5.25" style="24" customWidth="1"/>
+    <col min="11788" max="11788" width="13.5" style="24" customWidth="1"/>
+    <col min="11789" max="11790" width="7.5" style="24" customWidth="1"/>
+    <col min="11791" max="11791" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="11792" max="11792" width="7.5" style="24" customWidth="1"/>
+    <col min="11793" max="11794" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11795" max="11795" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="11796" max="11796" width="10.25" style="24" customWidth="1"/>
+    <col min="11797" max="11797" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="11798" max="11798" width="2.25" style="24" customWidth="1"/>
+    <col min="11799" max="11799" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="11800" max="12032" width="8.25" style="24"/>
+    <col min="12033" max="12033" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="12034" max="12039" width="7.5" style="24" customWidth="1"/>
+    <col min="12040" max="12040" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="12041" max="12042" width="7.5" style="24" customWidth="1"/>
+    <col min="12043" max="12043" width="5.25" style="24" customWidth="1"/>
+    <col min="12044" max="12044" width="13.5" style="24" customWidth="1"/>
+    <col min="12045" max="12046" width="7.5" style="24" customWidth="1"/>
+    <col min="12047" max="12047" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="12048" max="12048" width="7.5" style="24" customWidth="1"/>
+    <col min="12049" max="12050" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12051" max="12051" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="12052" max="12052" width="10.25" style="24" customWidth="1"/>
+    <col min="12053" max="12053" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="12054" max="12054" width="2.25" style="24" customWidth="1"/>
+    <col min="12055" max="12055" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12056" max="12288" width="8.25" style="24"/>
+    <col min="12289" max="12289" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="12290" max="12295" width="7.5" style="24" customWidth="1"/>
+    <col min="12296" max="12296" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="12297" max="12298" width="7.5" style="24" customWidth="1"/>
+    <col min="12299" max="12299" width="5.25" style="24" customWidth="1"/>
+    <col min="12300" max="12300" width="13.5" style="24" customWidth="1"/>
+    <col min="12301" max="12302" width="7.5" style="24" customWidth="1"/>
+    <col min="12303" max="12303" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="12304" max="12304" width="7.5" style="24" customWidth="1"/>
+    <col min="12305" max="12306" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12307" max="12307" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="12308" max="12308" width="10.25" style="24" customWidth="1"/>
+    <col min="12309" max="12309" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="12310" max="12310" width="2.25" style="24" customWidth="1"/>
+    <col min="12311" max="12311" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12312" max="12544" width="8.25" style="24"/>
+    <col min="12545" max="12545" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="12546" max="12551" width="7.5" style="24" customWidth="1"/>
+    <col min="12552" max="12552" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="12553" max="12554" width="7.5" style="24" customWidth="1"/>
+    <col min="12555" max="12555" width="5.25" style="24" customWidth="1"/>
+    <col min="12556" max="12556" width="13.5" style="24" customWidth="1"/>
+    <col min="12557" max="12558" width="7.5" style="24" customWidth="1"/>
+    <col min="12559" max="12559" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="12560" max="12560" width="7.5" style="24" customWidth="1"/>
+    <col min="12561" max="12562" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12563" max="12563" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="12564" max="12564" width="10.25" style="24" customWidth="1"/>
+    <col min="12565" max="12565" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="12566" max="12566" width="2.25" style="24" customWidth="1"/>
+    <col min="12567" max="12567" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12568" max="12800" width="8.25" style="24"/>
+    <col min="12801" max="12801" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="12802" max="12807" width="7.5" style="24" customWidth="1"/>
+    <col min="12808" max="12808" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="12809" max="12810" width="7.5" style="24" customWidth="1"/>
+    <col min="12811" max="12811" width="5.25" style="24" customWidth="1"/>
+    <col min="12812" max="12812" width="13.5" style="24" customWidth="1"/>
+    <col min="12813" max="12814" width="7.5" style="24" customWidth="1"/>
+    <col min="12815" max="12815" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="12816" max="12816" width="7.5" style="24" customWidth="1"/>
+    <col min="12817" max="12818" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12819" max="12819" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="12820" max="12820" width="10.25" style="24" customWidth="1"/>
+    <col min="12821" max="12821" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="12822" max="12822" width="2.25" style="24" customWidth="1"/>
+    <col min="12823" max="12823" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="12824" max="13056" width="8.25" style="24"/>
+    <col min="13057" max="13057" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="13058" max="13063" width="7.5" style="24" customWidth="1"/>
+    <col min="13064" max="13064" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="13065" max="13066" width="7.5" style="24" customWidth="1"/>
+    <col min="13067" max="13067" width="5.25" style="24" customWidth="1"/>
+    <col min="13068" max="13068" width="13.5" style="24" customWidth="1"/>
+    <col min="13069" max="13070" width="7.5" style="24" customWidth="1"/>
+    <col min="13071" max="13071" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="13072" max="13072" width="7.5" style="24" customWidth="1"/>
+    <col min="13073" max="13074" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13075" max="13075" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="13076" max="13076" width="10.25" style="24" customWidth="1"/>
+    <col min="13077" max="13077" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="13078" max="13078" width="2.25" style="24" customWidth="1"/>
+    <col min="13079" max="13079" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13080" max="13312" width="8.25" style="24"/>
+    <col min="13313" max="13313" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="13314" max="13319" width="7.5" style="24" customWidth="1"/>
+    <col min="13320" max="13320" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="13321" max="13322" width="7.5" style="24" customWidth="1"/>
+    <col min="13323" max="13323" width="5.25" style="24" customWidth="1"/>
+    <col min="13324" max="13324" width="13.5" style="24" customWidth="1"/>
+    <col min="13325" max="13326" width="7.5" style="24" customWidth="1"/>
+    <col min="13327" max="13327" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="13328" max="13328" width="7.5" style="24" customWidth="1"/>
+    <col min="13329" max="13330" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13331" max="13331" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="13332" max="13332" width="10.25" style="24" customWidth="1"/>
+    <col min="13333" max="13333" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="13334" max="13334" width="2.25" style="24" customWidth="1"/>
+    <col min="13335" max="13335" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13336" max="13568" width="8.25" style="24"/>
+    <col min="13569" max="13569" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="13570" max="13575" width="7.5" style="24" customWidth="1"/>
+    <col min="13576" max="13576" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="13577" max="13578" width="7.5" style="24" customWidth="1"/>
+    <col min="13579" max="13579" width="5.25" style="24" customWidth="1"/>
+    <col min="13580" max="13580" width="13.5" style="24" customWidth="1"/>
+    <col min="13581" max="13582" width="7.5" style="24" customWidth="1"/>
+    <col min="13583" max="13583" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="13584" max="13584" width="7.5" style="24" customWidth="1"/>
+    <col min="13585" max="13586" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13587" max="13587" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="13588" max="13588" width="10.25" style="24" customWidth="1"/>
+    <col min="13589" max="13589" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="13590" max="13590" width="2.25" style="24" customWidth="1"/>
+    <col min="13591" max="13591" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13592" max="13824" width="8.25" style="24"/>
+    <col min="13825" max="13825" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="13826" max="13831" width="7.5" style="24" customWidth="1"/>
+    <col min="13832" max="13832" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="13833" max="13834" width="7.5" style="24" customWidth="1"/>
+    <col min="13835" max="13835" width="5.25" style="24" customWidth="1"/>
+    <col min="13836" max="13836" width="13.5" style="24" customWidth="1"/>
+    <col min="13837" max="13838" width="7.5" style="24" customWidth="1"/>
+    <col min="13839" max="13839" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="13840" max="13840" width="7.5" style="24" customWidth="1"/>
+    <col min="13841" max="13842" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13843" max="13843" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="13844" max="13844" width="10.25" style="24" customWidth="1"/>
+    <col min="13845" max="13845" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="13846" max="13846" width="2.25" style="24" customWidth="1"/>
+    <col min="13847" max="13847" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="13848" max="14080" width="8.25" style="24"/>
+    <col min="14081" max="14081" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="14082" max="14087" width="7.5" style="24" customWidth="1"/>
+    <col min="14088" max="14088" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="14089" max="14090" width="7.5" style="24" customWidth="1"/>
+    <col min="14091" max="14091" width="5.25" style="24" customWidth="1"/>
+    <col min="14092" max="14092" width="13.5" style="24" customWidth="1"/>
+    <col min="14093" max="14094" width="7.5" style="24" customWidth="1"/>
+    <col min="14095" max="14095" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="14096" max="14096" width="7.5" style="24" customWidth="1"/>
+    <col min="14097" max="14098" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14099" max="14099" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="14100" max="14100" width="10.25" style="24" customWidth="1"/>
+    <col min="14101" max="14101" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="14102" max="14102" width="2.25" style="24" customWidth="1"/>
+    <col min="14103" max="14103" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14104" max="14336" width="8.25" style="24"/>
+    <col min="14337" max="14337" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="14338" max="14343" width="7.5" style="24" customWidth="1"/>
+    <col min="14344" max="14344" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="14345" max="14346" width="7.5" style="24" customWidth="1"/>
+    <col min="14347" max="14347" width="5.25" style="24" customWidth="1"/>
+    <col min="14348" max="14348" width="13.5" style="24" customWidth="1"/>
+    <col min="14349" max="14350" width="7.5" style="24" customWidth="1"/>
+    <col min="14351" max="14351" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="14352" max="14352" width="7.5" style="24" customWidth="1"/>
+    <col min="14353" max="14354" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14355" max="14355" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="14356" max="14356" width="10.25" style="24" customWidth="1"/>
+    <col min="14357" max="14357" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="14358" max="14358" width="2.25" style="24" customWidth="1"/>
+    <col min="14359" max="14359" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14360" max="14592" width="8.25" style="24"/>
+    <col min="14593" max="14593" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="14594" max="14599" width="7.5" style="24" customWidth="1"/>
+    <col min="14600" max="14600" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="14601" max="14602" width="7.5" style="24" customWidth="1"/>
+    <col min="14603" max="14603" width="5.25" style="24" customWidth="1"/>
+    <col min="14604" max="14604" width="13.5" style="24" customWidth="1"/>
+    <col min="14605" max="14606" width="7.5" style="24" customWidth="1"/>
+    <col min="14607" max="14607" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="14608" max="14608" width="7.5" style="24" customWidth="1"/>
+    <col min="14609" max="14610" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14611" max="14611" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="14612" max="14612" width="10.25" style="24" customWidth="1"/>
+    <col min="14613" max="14613" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="14614" max="14614" width="2.25" style="24" customWidth="1"/>
+    <col min="14615" max="14615" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14616" max="14848" width="8.25" style="24"/>
+    <col min="14849" max="14849" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="14850" max="14855" width="7.5" style="24" customWidth="1"/>
+    <col min="14856" max="14856" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="14857" max="14858" width="7.5" style="24" customWidth="1"/>
+    <col min="14859" max="14859" width="5.25" style="24" customWidth="1"/>
+    <col min="14860" max="14860" width="13.5" style="24" customWidth="1"/>
+    <col min="14861" max="14862" width="7.5" style="24" customWidth="1"/>
+    <col min="14863" max="14863" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="14864" max="14864" width="7.5" style="24" customWidth="1"/>
+    <col min="14865" max="14866" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14867" max="14867" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="14868" max="14868" width="10.25" style="24" customWidth="1"/>
+    <col min="14869" max="14869" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="14870" max="14870" width="2.25" style="24" customWidth="1"/>
+    <col min="14871" max="14871" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="14872" max="15104" width="8.25" style="24"/>
+    <col min="15105" max="15105" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="15106" max="15111" width="7.5" style="24" customWidth="1"/>
+    <col min="15112" max="15112" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="15113" max="15114" width="7.5" style="24" customWidth="1"/>
+    <col min="15115" max="15115" width="5.25" style="24" customWidth="1"/>
+    <col min="15116" max="15116" width="13.5" style="24" customWidth="1"/>
+    <col min="15117" max="15118" width="7.5" style="24" customWidth="1"/>
+    <col min="15119" max="15119" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="15120" max="15120" width="7.5" style="24" customWidth="1"/>
+    <col min="15121" max="15122" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15123" max="15123" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="15124" max="15124" width="10.25" style="24" customWidth="1"/>
+    <col min="15125" max="15125" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="15126" max="15126" width="2.25" style="24" customWidth="1"/>
+    <col min="15127" max="15127" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15128" max="15360" width="8.25" style="24"/>
+    <col min="15361" max="15361" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="15362" max="15367" width="7.5" style="24" customWidth="1"/>
+    <col min="15368" max="15368" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="15369" max="15370" width="7.5" style="24" customWidth="1"/>
+    <col min="15371" max="15371" width="5.25" style="24" customWidth="1"/>
+    <col min="15372" max="15372" width="13.5" style="24" customWidth="1"/>
+    <col min="15373" max="15374" width="7.5" style="24" customWidth="1"/>
+    <col min="15375" max="15375" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="15376" max="15376" width="7.5" style="24" customWidth="1"/>
+    <col min="15377" max="15378" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15379" max="15379" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="15380" max="15380" width="10.25" style="24" customWidth="1"/>
+    <col min="15381" max="15381" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="15382" max="15382" width="2.25" style="24" customWidth="1"/>
+    <col min="15383" max="15383" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15384" max="15616" width="8.25" style="24"/>
+    <col min="15617" max="15617" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="15618" max="15623" width="7.5" style="24" customWidth="1"/>
+    <col min="15624" max="15624" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="15625" max="15626" width="7.5" style="24" customWidth="1"/>
+    <col min="15627" max="15627" width="5.25" style="24" customWidth="1"/>
+    <col min="15628" max="15628" width="13.5" style="24" customWidth="1"/>
+    <col min="15629" max="15630" width="7.5" style="24" customWidth="1"/>
+    <col min="15631" max="15631" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="15632" max="15632" width="7.5" style="24" customWidth="1"/>
+    <col min="15633" max="15634" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15635" max="15635" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="15636" max="15636" width="10.25" style="24" customWidth="1"/>
+    <col min="15637" max="15637" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="15638" max="15638" width="2.25" style="24" customWidth="1"/>
+    <col min="15639" max="15639" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15640" max="15872" width="8.25" style="24"/>
+    <col min="15873" max="15873" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="15874" max="15879" width="7.5" style="24" customWidth="1"/>
+    <col min="15880" max="15880" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="15881" max="15882" width="7.5" style="24" customWidth="1"/>
+    <col min="15883" max="15883" width="5.25" style="24" customWidth="1"/>
+    <col min="15884" max="15884" width="13.5" style="24" customWidth="1"/>
+    <col min="15885" max="15886" width="7.5" style="24" customWidth="1"/>
+    <col min="15887" max="15887" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="15888" max="15888" width="7.5" style="24" customWidth="1"/>
+    <col min="15889" max="15890" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15891" max="15891" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="15892" max="15892" width="10.25" style="24" customWidth="1"/>
+    <col min="15893" max="15893" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="15894" max="15894" width="2.25" style="24" customWidth="1"/>
+    <col min="15895" max="15895" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="15896" max="16128" width="8.25" style="24"/>
+    <col min="16129" max="16129" width="3.62962962962963" style="24" customWidth="1"/>
+    <col min="16130" max="16135" width="7.5" style="24" customWidth="1"/>
+    <col min="16136" max="16136" width="9.37962962962963" style="24" customWidth="1"/>
+    <col min="16137" max="16138" width="7.5" style="24" customWidth="1"/>
+    <col min="16139" max="16139" width="5.25" style="24" customWidth="1"/>
+    <col min="16140" max="16140" width="13.5" style="24" customWidth="1"/>
+    <col min="16141" max="16142" width="7.5" style="24" customWidth="1"/>
+    <col min="16143" max="16143" width="8.87962962962963" style="24" customWidth="1"/>
+    <col min="16144" max="16144" width="7.5" style="24" customWidth="1"/>
+    <col min="16145" max="16146" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="16147" max="16147" width="8.37962962962963" style="24" customWidth="1"/>
+    <col min="16148" max="16148" width="10.25" style="24" customWidth="1"/>
+    <col min="16149" max="16149" width="11.3796296296296" style="24" customWidth="1"/>
+    <col min="16150" max="16150" width="2.25" style="24" customWidth="1"/>
+    <col min="16151" max="16151" width="8.25" style="24" hidden="1" customWidth="1"/>
+    <col min="16152" max="16384" width="8.25" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="41"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A2" s="29"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="27"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A3" s="29"/>
-      <c r="K3" s="42"/>
+      <c r="A3" s="27"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A4" s="29"/>
-      <c r="K4" s="42"/>
+      <c r="A4" s="27"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A5" s="29"/>
-      <c r="K5" s="42"/>
+      <c r="A5" s="27"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A6" s="29"/>
-      <c r="K6" s="42"/>
+      <c r="A6" s="27"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A7" s="29"/>
-      <c r="K7" s="42"/>
+      <c r="A7" s="27"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A8" s="29"/>
-      <c r="K8" s="42"/>
+      <c r="A8" s="27"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A9" s="29"/>
-      <c r="K9" s="42"/>
+      <c r="A9" s="27"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" ht="2.25" customHeight="1" spans="1:11">
-      <c r="A10" s="29"/>
-      <c r="K10" s="42"/>
+      <c r="A10" s="27"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" ht="2.25" customHeight="1" spans="1:15">
-      <c r="A11" s="29"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="27"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" ht="32.4" spans="1:15">
-      <c r="A12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" ht="32.4" spans="1:15">
-      <c r="A13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" ht="32.4" spans="1:15">
-      <c r="A14" s="29"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="A14" s="27"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" ht="32.4" spans="1:20">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
     </row>
     <row r="16" ht="32.4" spans="1:20">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
     </row>
     <row r="17" ht="32.4" spans="1:20">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="R17" s="51"/>
-      <c r="T17" s="51"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="R17" s="49"/>
+      <c r="T17" s="49"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="47"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="45"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="47"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="47"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="47"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="47"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="47"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" ht="25.8" spans="1:15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="47"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="47"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="47"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="47"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="29"/>
-      <c r="K29" s="42"/>
+      <c r="A29" s="27"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="29"/>
-      <c r="K30" s="42"/>
+      <c r="A30" s="27"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29"/>
-      <c r="K31" s="42"/>
+      <c r="A31" s="27"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="29"/>
-      <c r="K32" s="42"/>
+      <c r="A32" s="27"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="29"/>
-      <c r="K33" s="42"/>
+      <c r="A33" s="27"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="29"/>
-      <c r="K34" s="42"/>
+      <c r="A34" s="27"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" ht="25.8" spans="1:15">
-      <c r="A35" s="29"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
+      <c r="A35" s="27"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
     </row>
     <row r="36" ht="25.8" spans="1:15">
-      <c r="A36" s="29"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
+      <c r="A36" s="27"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="29"/>
-      <c r="K37" s="42"/>
+      <c r="A37" s="27"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="29"/>
-      <c r="K38" s="42"/>
+      <c r="A38" s="27"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="29"/>
-      <c r="K39" s="42"/>
+      <c r="A39" s="27"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="29"/>
-      <c r="K40" s="42"/>
+      <c r="A40" s="27"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="29"/>
-      <c r="K41" s="42"/>
+      <c r="A41" s="27"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="49"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="49"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="47"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="49"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="49"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="47"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="29"/>
-      <c r="K46" s="42"/>
+      <c r="A46" s="27"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="29"/>
-      <c r="K47" s="42"/>
+      <c r="A47" s="27"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="29"/>
-      <c r="K48" s="42"/>
+      <c r="A48" s="27"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="29"/>
-      <c r="K49" s="42"/>
+      <c r="A49" s="27"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="29"/>
-      <c r="K50" s="42"/>
+      <c r="A50" s="27"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="50"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3438,7 +3425,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3465,7 +3452,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
@@ -3490,7 +3477,7 @@
       </c>
     </row>
     <row r="14" ht="24" spans="1:9">
-      <c r="A14" s="24"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
@@ -3646,13 +3633,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -3665,7 +3652,7 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3682,7 +3669,7 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3705,7 +3692,7 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
@@ -3728,7 +3715,7 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" ht="24" spans="1:9">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
@@ -3749,7 +3736,7 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
@@ -3768,7 +3755,7 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
@@ -3787,7 +3774,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3797,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
@@ -3831,7 +3818,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -3850,7 +3837,7 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="24"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
@@ -3887,7 +3874,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4235,10 +4222,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4256,168 +4243,172 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" ht="15" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="17"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" ht="15" spans="1:9">
-      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:9">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" ht="30" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" ht="30" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="21"/>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
@@ -4429,31 +4420,37 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="24"/>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -4470,62 +4467,36 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="24" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" ht="24" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="目录!A1" display="返回目录"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -4549,7 +4520,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4576,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4591,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4606,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4757,7 +4728,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -4772,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4799,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4814,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4829,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
